--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Random Forest-100 (superdataset-24-f 2Y.csv)</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J57"/>
+  <dimension ref="C3:T57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +491,12 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="19" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,8 +505,16 @@
         <v>24</v>
       </c>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -512,8 +529,22 @@
       <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -526,10 +557,24 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>35.835579545454529</v>
+      </c>
+      <c r="J5" s="3">
+        <v>93.776145454545443</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -544,10 +589,26 @@
         <f>H5+1</f>
         <v>2</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>35.626088636363633</v>
+      </c>
+      <c r="J6" s="3">
+        <v>96.228118181818175</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="R6" s="2">
+        <f>R5+1</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -562,10 +623,26 @@
         <f t="shared" ref="H7:H54" si="1">H6+1</f>
         <v>3</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>35.101438636363618</v>
+      </c>
+      <c r="J7" s="3">
+        <v>97.568399999999997</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R54" si="3">R6+1</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -580,10 +657,26 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>35.169211363636357</v>
+      </c>
+      <c r="J8" s="3">
+        <v>95.718109090909095</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="R8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -598,10 +691,26 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>35.168111363636349</v>
+      </c>
+      <c r="J9" s="3">
+        <v>96.456472727272711</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -616,10 +725,26 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>35.982068181818171</v>
+      </c>
+      <c r="J10" s="3">
+        <v>92.065490909090897</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -634,10 +759,26 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>35.977472727272712</v>
+      </c>
+      <c r="J11" s="3">
+        <v>93.488299999999981</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -652,10 +793,26 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>35.246588636363633</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100.7944181818182</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -670,10 +827,26 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>35.371634090909083</v>
+      </c>
+      <c r="J13" s="3">
+        <v>97.756636363636346</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -688,10 +861,26 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>35.699120454545437</v>
+      </c>
+      <c r="J14" s="3">
+        <v>94.040472727272714</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -706,10 +895,26 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>35.813027272727268</v>
+      </c>
+      <c r="J15" s="3">
+        <v>93.231018181818172</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -724,10 +929,26 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>36.270106818181809</v>
+      </c>
+      <c r="J16" s="3">
+        <v>90.795427272727281</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -742,10 +963,26 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>36.000879545454538</v>
+      </c>
+      <c r="J17" s="3">
+        <v>93.35099090909091</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -760,10 +997,26 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>35.908431818181803</v>
+      </c>
+      <c r="J18" s="3">
+        <v>92.774845454545442</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -778,10 +1031,26 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>35.901611363636349</v>
+      </c>
+      <c r="J19" s="3">
+        <v>98.394345454545459</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -796,10 +1065,26 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <v>35.059749999999987</v>
+      </c>
+      <c r="J20" s="3">
+        <v>97.497354545454542</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -814,10 +1099,26 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>35.156100000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>99.378790909090895</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -832,10 +1133,26 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <v>35.747754545454526</v>
+      </c>
+      <c r="J22" s="3">
+        <v>93.498299999999986</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -850,10 +1167,26 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>35.874429545454547</v>
+      </c>
+      <c r="J23" s="3">
+        <v>96.582918181818172</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -868,10 +1201,26 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="3">
+        <v>35.780704545454533</v>
+      </c>
+      <c r="J24" s="3">
+        <v>95.602736363636339</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -886,10 +1235,26 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>35.142252272727269</v>
+      </c>
+      <c r="J25" s="3">
+        <v>101.8183090909091</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -904,10 +1269,26 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>35.584597727272723</v>
+      </c>
+      <c r="J26" s="3">
+        <v>94.089045454545442</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -922,10 +1303,26 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>35.565631818181807</v>
+      </c>
+      <c r="J27" s="3">
+        <v>99.450818181818178</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -940,10 +1337,26 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>35.76767499999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>98.576036363636348</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -958,10 +1371,26 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>35.783534090909072</v>
+      </c>
+      <c r="J29" s="3">
+        <v>93.483199999999997</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -976,10 +1405,26 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="3">
+        <v>35.697065909090902</v>
+      </c>
+      <c r="J30" s="3">
+        <v>96.257499999999993</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -994,10 +1439,26 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="3">
+        <v>35.342300000000002</v>
+      </c>
+      <c r="J31" s="3">
+        <v>98.202981818181797</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1012,10 +1473,26 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="3">
+        <v>35.676777272727257</v>
+      </c>
+      <c r="J32" s="3">
+        <v>99.450327272727264</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1030,10 +1507,26 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="3">
+        <v>35.929956818181807</v>
+      </c>
+      <c r="J33" s="3">
+        <v>90.835609090909074</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1048,10 +1541,26 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="3">
+        <v>36.24679318181817</v>
+      </c>
+      <c r="J34" s="3">
+        <v>87.894718181818178</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1066,10 +1575,26 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="3">
+        <v>35.170486363636357</v>
+      </c>
+      <c r="J35" s="3">
+        <v>97.195499999999996</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1084,10 +1609,26 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="3">
+        <v>36.13165681818181</v>
+      </c>
+      <c r="J36" s="3">
+        <v>99.096972727272714</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1102,10 +1643,26 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="3">
+        <v>35.393715909090901</v>
+      </c>
+      <c r="J37" s="3">
+        <v>96.738972727272724</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1120,10 +1677,26 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="3">
+        <v>35.863140909090902</v>
+      </c>
+      <c r="J38" s="3">
+        <v>96.571427272727263</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1138,10 +1711,26 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="3">
+        <v>35.649934090909078</v>
+      </c>
+      <c r="J39" s="3">
+        <v>96.245263636363617</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1156,10 +1745,26 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="3">
+        <v>35.372643181818169</v>
+      </c>
+      <c r="J40" s="3">
+        <v>97.011963636363632</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1174,10 +1779,26 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="3">
+        <v>35.879179545454527</v>
+      </c>
+      <c r="J41" s="3">
+        <v>95.521627272727272</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1192,10 +1813,26 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="3">
+        <v>36.1957159090909</v>
+      </c>
+      <c r="J42" s="3">
+        <v>90.773309090909095</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1210,10 +1847,26 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>35.841347727272712</v>
+      </c>
+      <c r="J43" s="3">
+        <v>94.809390909090894</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1228,10 +1881,26 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="3">
+        <v>36.135284090909067</v>
+      </c>
+      <c r="J44" s="3">
+        <v>91.726818181818174</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1246,10 +1915,26 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="3">
+        <v>35.722163636363632</v>
+      </c>
+      <c r="J45" s="3">
+        <v>97.20441818181817</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1264,10 +1949,26 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <v>35.844586363636353</v>
+      </c>
+      <c r="J46" s="3">
+        <v>95.495072727272714</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1282,10 +1983,26 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="3">
+        <v>36.2395909090909</v>
+      </c>
+      <c r="J47" s="3">
+        <v>87.938218181818158</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1300,10 +2017,26 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="3">
+        <v>35.621484090909078</v>
+      </c>
+      <c r="J48" s="3">
+        <v>93.528318181818179</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1318,10 +2051,26 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="3">
+        <v>35.891149999999989</v>
+      </c>
+      <c r="J49" s="3">
+        <v>90.676581818181816</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1336,10 +2085,26 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="3">
+        <v>35.750249999999987</v>
+      </c>
+      <c r="J50" s="3">
+        <v>94.903609090909072</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1354,10 +2119,26 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="3">
+        <v>35.574972727272723</v>
+      </c>
+      <c r="J51" s="3">
+        <v>98.204563636363631</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1372,10 +2153,26 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="3">
+        <v>35.633363636363619</v>
+      </c>
+      <c r="J52" s="3">
+        <v>94.692390909090904</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1390,10 +2187,26 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="3">
+        <v>36.310788636363633</v>
+      </c>
+      <c r="J53" s="3">
+        <v>90.538454545454542</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1408,10 +2221,26 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="3">
+        <v>35.511552272727258</v>
+      </c>
+      <c r="J54" s="3">
+        <v>98.017572727272722</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
@@ -1426,16 +2255,38 @@
       <c r="H56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="3" t="e">
+      <c r="I56" s="3">
         <f>AVERAGE(I5:I54)</f>
+        <v>35.703193999999982</v>
+      </c>
+      <c r="J56" s="3">
+        <f>AVERAGE(J5:J54)</f>
+        <v>95.318965636363643</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="3" t="e">
+        <f>AVERAGE(N5:N54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="3" t="e">
-        <f>AVERAGE(J5:J54)</f>
+      <c r="O56" s="3" t="e">
+        <f>AVERAGE(O5:O54)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="R56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="3" t="e">
+        <f>AVERAGE(S5:S54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="3" t="e">
+        <f>AVERAGE(T5:T54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1450,12 +2301,34 @@
       <c r="H57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3" t="e">
+      <c r="I57" s="3">
         <f>_xlfn.STDEV.S(I5:I54)</f>
+        <v>0.33437412120926086</v>
+      </c>
+      <c r="J57" s="3">
+        <f>_xlfn.STDEV.S(J5:J54)</f>
+        <v>3.1595966317665791</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="e">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="3" t="e">
-        <f>_xlfn.STDEV.S(J5:J54)</f>
+      <c r="O57" s="3" t="e">
+        <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="e">
+        <f>_xlfn.STDEV.S(S5:S54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="3" t="e">
+        <f>_xlfn.STDEV.S(T5:T54)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1466,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D41"/>
+  <dimension ref="A4:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,6 +2350,8 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,6 +2374,9 @@
       <c r="C5" s="3">
         <v>7.1388894352929708E-2</v>
       </c>
+      <c r="D5" s="3">
+        <v>7.5297953219226721E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1508,6 +2386,9 @@
       <c r="C6" s="3">
         <v>6.4470159101659569E-2</v>
       </c>
+      <c r="D6" s="3">
+        <v>5.9346088214304038E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1517,6 +2398,9 @@
       <c r="C7" s="3">
         <v>6.7707876556377056E-2</v>
       </c>
+      <c r="D7" s="3">
+        <v>7.2630088469440773E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1526,6 +2410,9 @@
       <c r="C8" s="3">
         <v>4.6371669523161199E-2</v>
       </c>
+      <c r="D8" s="3">
+        <v>4.5103577218663683E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1535,6 +2422,9 @@
       <c r="C9" s="3">
         <v>5.300231715760427E-2</v>
       </c>
+      <c r="D9" s="3">
+        <v>5.2064050405848467E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1544,6 +2434,9 @@
       <c r="C10" s="3">
         <v>7.6409838115474832E-2</v>
       </c>
+      <c r="D10" s="3">
+        <v>8.0680765509400773E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1553,6 +2446,9 @@
       <c r="C11" s="3">
         <v>5.6139722040872107E-2</v>
       </c>
+      <c r="D11" s="3">
+        <v>5.987358322891894E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1562,6 +2458,9 @@
       <c r="C12" s="3">
         <v>5.6431511425019683E-2</v>
       </c>
+      <c r="D12" s="3">
+        <v>4.7239375280772683E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1571,6 +2470,9 @@
       <c r="C13" s="3">
         <v>4.647879982952656E-2</v>
       </c>
+      <c r="D13" s="3">
+        <v>4.7402095060868857E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1580,6 +2482,9 @@
       <c r="C14" s="3">
         <v>6.1051775385052597E-2</v>
       </c>
+      <c r="D14" s="3">
+        <v>6.9740007649667202E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1589,6 +2494,9 @@
       <c r="C15" s="3">
         <v>7.1938387955911121E-2</v>
       </c>
+      <c r="D15" s="3">
+        <v>6.8994958644181537E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1598,8 +2506,11 @@
       <c r="C16" s="3">
         <v>6.5808806026058056E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>6.9197266835097554E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
@@ -1607,8 +2518,11 @@
       <c r="C17" s="3">
         <v>6.1264981457860183E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>5.8909953146660268E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
@@ -1616,8 +2530,11 @@
       <c r="C18" s="3">
         <v>7.1746720480670378E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>5.956278142554991E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
@@ -1625,8 +2542,11 @@
       <c r="C19" s="3">
         <v>8.3519911319266879E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>8.3331582773955054E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>21</v>
@@ -1634,146 +2554,251 @@
       <c r="C20" s="3">
         <v>4.6268629272555817E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>5.0625872917443512E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="3">
         <v>8.3519911319266879E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8.3331582773955054E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3">
         <v>7.6409838115474832E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8.0680765509400773E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="3">
         <v>7.1938387955911121E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
+        <v>7.5297953219226721E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>7.1746720480670378E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7.2630088469440773E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>7.1388894352929708E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6.9740007649667202E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>6.7707876556377056E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6.9197266835097554E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="3">
         <v>6.5808806026058056E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.8994958644181537E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3">
         <v>6.4470159101659569E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5.987358322891894E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="3">
         <v>6.1264981457860183E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.956278142554991E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>6.1051775385052597E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5.9346088214304038E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>5.6431511425019683E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5.8909953146660268E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="3">
         <v>5.6139722040872107E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.2064050405848467E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="3">
         <v>5.300231715760427E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5.0625872917443512E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="3">
         <v>4.647879982952656E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.7402095060868857E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="3">
         <v>4.6371669523161199E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.7239375280772683E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="3">
         <v>4.6268629272555817E-2</v>
       </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4.5103577218663683E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B26:C41">
-    <sortCondition descending="1" ref="C26:C41"/>
+  <sortState ref="E26:F41">
+    <sortCondition descending="1" ref="F26:F41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +566,12 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3">
+        <v>2885.140409918813</v>
+      </c>
+      <c r="O5" s="3">
+        <v>19716.934715172902</v>
+      </c>
       <c r="R5" s="2">
         <v>1</v>
       </c>
@@ -599,8 +603,12 @@
         <f>M5+1</f>
         <v>2</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3">
+        <v>2917.400675767738</v>
+      </c>
+      <c r="O6" s="3">
+        <v>18553.49103683839</v>
+      </c>
       <c r="R6" s="2">
         <f>R5+1</f>
         <v>2</v>
@@ -633,8 +641,12 @@
         <f t="shared" ref="M7:M54" si="2">M6+1</f>
         <v>3</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>2942.5704854041651</v>
+      </c>
+      <c r="O7" s="3">
+        <v>18662.16895772759</v>
+      </c>
       <c r="R7" s="2">
         <f t="shared" ref="R7:R54" si="3">R6+1</f>
         <v>3</v>
@@ -667,8 +679,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3">
+        <v>2791.2388276738429</v>
+      </c>
+      <c r="O8" s="3">
+        <v>20745.58181721947</v>
+      </c>
       <c r="R8" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -701,8 +717,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3">
+        <v>2883.4160241793152</v>
+      </c>
+      <c r="O9" s="3">
+        <v>18213.051568313331</v>
+      </c>
       <c r="R9" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -735,8 +755,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <v>2849.341758436286</v>
+      </c>
+      <c r="O10" s="3">
+        <v>20890.997923712061</v>
+      </c>
       <c r="R10" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -769,8 +793,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>2893.916529597599</v>
+      </c>
+      <c r="O11" s="3">
+        <v>18006.12510853916</v>
+      </c>
       <c r="R11" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -803,8 +831,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3">
+        <v>2871.0047176138369</v>
+      </c>
+      <c r="O12" s="3">
+        <v>19187.008482709949</v>
+      </c>
       <c r="R12" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -837,8 +869,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3">
+        <v>2876.5212187433808</v>
+      </c>
+      <c r="O13" s="3">
+        <v>20000.70413528581</v>
+      </c>
       <c r="R13" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -871,8 +907,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3">
+        <v>2688.3978799682309</v>
+      </c>
+      <c r="O14" s="3">
+        <v>20661.954152011291</v>
+      </c>
       <c r="R14" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -905,8 +945,12 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3">
+        <v>2721.5533336392518</v>
+      </c>
+      <c r="O15" s="3">
+        <v>21834.885481227939</v>
+      </c>
       <c r="R15" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -939,8 +983,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3">
+        <v>2857.1864841863739</v>
+      </c>
+      <c r="O16" s="3">
+        <v>20066.616100141138</v>
+      </c>
       <c r="R16" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -973,8 +1021,12 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3">
+        <v>2817.5808289092829</v>
+      </c>
+      <c r="O17" s="3">
+        <v>20115.171759985878</v>
+      </c>
       <c r="R17" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1007,8 +1059,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3">
+        <v>2865.9792240381221</v>
+      </c>
+      <c r="O18" s="3">
+        <v>19621.118954340149</v>
+      </c>
       <c r="R18" s="2">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1041,8 +1097,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3">
+        <v>2783.3344844158132</v>
+      </c>
+      <c r="O19" s="3">
+        <v>20577.722999788279</v>
+      </c>
       <c r="R19" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1075,8 +1135,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3">
+        <v>2802.8407185315918</v>
+      </c>
+      <c r="O20" s="3">
+        <v>18214.89993338038</v>
+      </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1109,8 +1173,12 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3">
+        <v>2876.7315134486398</v>
+      </c>
+      <c r="O21" s="3">
+        <v>20307.689022794639</v>
+      </c>
       <c r="R21" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1143,8 +1211,12 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3">
+        <v>2780.5368736145429</v>
+      </c>
+      <c r="O22" s="3">
+        <v>20491.546039308389</v>
+      </c>
       <c r="R22" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1177,8 +1249,12 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3">
+        <v>2821.8172215142959</v>
+      </c>
+      <c r="O23" s="3">
+        <v>19224.933889767111</v>
+      </c>
       <c r="R23" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1211,8 +1287,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3">
+        <v>2792.527663113307</v>
+      </c>
+      <c r="O24" s="3">
+        <v>19671.007090119969</v>
+      </c>
       <c r="R24" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1245,8 +1325,12 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3">
+        <v>2750.3280275502989</v>
+      </c>
+      <c r="O25" s="3">
+        <v>21150.61716125617</v>
+      </c>
       <c r="R25" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1279,8 +1363,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3">
+        <v>2820.766670455348</v>
+      </c>
+      <c r="O26" s="3">
+        <v>19159.103209809451</v>
+      </c>
       <c r="R26" s="2">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1313,8 +1401,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3">
+        <v>2754.368138828097</v>
+      </c>
+      <c r="O27" s="3">
+        <v>21711.035464996461</v>
+      </c>
       <c r="R27" s="2">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -1347,8 +1439,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3">
+        <v>2873.1460086657248</v>
+      </c>
+      <c r="O28" s="3">
+        <v>17306.61393401552</v>
+      </c>
       <c r="R28" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -1381,8 +1477,12 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3">
+        <v>2824.3451669784681</v>
+      </c>
+      <c r="O29" s="3">
+        <v>20199.784343330979</v>
+      </c>
       <c r="R29" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -1415,8 +1515,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3">
+        <v>2789.825158471584</v>
+      </c>
+      <c r="O30" s="3">
+        <v>19787.075055116438</v>
+      </c>
       <c r="R30" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -1449,8 +1553,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3">
+        <v>2867.0018399929399</v>
+      </c>
+      <c r="O31" s="3">
+        <v>20056.680597106559</v>
+      </c>
       <c r="R31" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -1483,8 +1591,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3">
+        <v>2711.4776998058592</v>
+      </c>
+      <c r="O32" s="3">
+        <v>22264.449517572339</v>
+      </c>
       <c r="R32" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -1517,8 +1629,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3">
+        <v>2873.0704037769151</v>
+      </c>
+      <c r="O33" s="3">
+        <v>21618.62082124205</v>
+      </c>
       <c r="R33" s="2">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -1551,8 +1667,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3">
+        <v>2833.5092312213192</v>
+      </c>
+      <c r="O34" s="3">
+        <v>19787.527856527871</v>
+      </c>
       <c r="R34" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -1585,8 +1705,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3">
+        <v>2864.8833353159189</v>
+      </c>
+      <c r="O35" s="3">
+        <v>18899.816603952011</v>
+      </c>
       <c r="R35" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -1619,8 +1743,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3">
+        <v>2810.5110886163079</v>
+      </c>
+      <c r="O36" s="3">
+        <v>20729.902100352851</v>
+      </c>
       <c r="R36" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -1653,8 +1781,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3">
+        <v>2805.5176454994698</v>
+      </c>
+      <c r="O37" s="3">
+        <v>19958.903146506698</v>
+      </c>
       <c r="R37" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -1687,8 +1819,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3">
+        <v>2887.795210589481</v>
+      </c>
+      <c r="O38" s="3">
+        <v>19980.675961326739</v>
+      </c>
       <c r="R38" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -1721,8 +1857,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="N39" s="3">
+        <v>2713.6557843981641</v>
+      </c>
+      <c r="O39" s="3">
+        <v>21819.75615490472</v>
+      </c>
       <c r="R39" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -1755,8 +1895,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="N40" s="3">
+        <v>2719.38778203318</v>
+      </c>
+      <c r="O40" s="3">
+        <v>21023.12183514467</v>
+      </c>
       <c r="R40" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -1789,8 +1933,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="N41" s="3">
+        <v>2767.2701892163782</v>
+      </c>
+      <c r="O41" s="3">
+        <v>22509.212580239939</v>
+      </c>
       <c r="R41" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -1823,8 +1971,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="N42" s="3">
+        <v>2737.7013530003528</v>
+      </c>
+      <c r="O42" s="3">
+        <v>19607.80684918843</v>
+      </c>
       <c r="R42" s="2">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -1857,8 +2009,12 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="3">
+        <v>2889.5785846452509</v>
+      </c>
+      <c r="O43" s="3">
+        <v>18671.32249350741</v>
+      </c>
       <c r="R43" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -1891,8 +2047,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="N44" s="3">
+        <v>2795.9868608718671</v>
+      </c>
+      <c r="O44" s="3">
+        <v>20251.260690684539</v>
+      </c>
       <c r="R44" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -1925,8 +2085,12 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="N45" s="3">
+        <v>2910.6667080656539</v>
+      </c>
+      <c r="O45" s="3">
+        <v>19337.63597297106</v>
+      </c>
       <c r="R45" s="2">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -1959,8 +2123,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="N46" s="3">
+        <v>2884.1398105718322</v>
+      </c>
+      <c r="O46" s="3">
+        <v>18350.597515666901</v>
+      </c>
       <c r="R46" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -1993,8 +2161,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="N47" s="3">
+        <v>2867.165576473702</v>
+      </c>
+      <c r="O47" s="3">
+        <v>19136.907747847559</v>
+      </c>
       <c r="R47" s="2">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -2027,8 +2199,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="N48" s="3">
+        <v>2950.4008484292272</v>
+      </c>
+      <c r="O48" s="3">
+        <v>18378.243652293571</v>
+      </c>
       <c r="R48" s="2">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -2061,8 +2237,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="N49" s="3">
+        <v>2846.5626503000349</v>
+      </c>
+      <c r="O49" s="3">
+        <v>20720.522374594209</v>
+      </c>
       <c r="R49" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -2095,8 +2275,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="N50" s="3">
+        <v>2898.614598340982</v>
+      </c>
+      <c r="O50" s="3">
+        <v>18299.291081580799</v>
+      </c>
       <c r="R50" s="2">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -2129,8 +2313,12 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="N51" s="3">
+        <v>2864.430822626191</v>
+      </c>
+      <c r="O51" s="3">
+        <v>20114.801148200419</v>
+      </c>
       <c r="R51" s="2">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -2163,8 +2351,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="N52" s="3">
+        <v>2815.6321298270382</v>
+      </c>
+      <c r="O52" s="3">
+        <v>19085.770111291458</v>
+      </c>
       <c r="R52" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -2197,8 +2389,12 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="N53" s="3">
+        <v>2932.0089432050831</v>
+      </c>
+      <c r="O53" s="3">
+        <v>17469.35093436838</v>
+      </c>
       <c r="R53" s="2">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -2231,8 +2427,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="3">
+        <v>2904.813584398164</v>
+      </c>
+      <c r="O54" s="3">
+        <v>17675.786555610441</v>
+      </c>
       <c r="R54" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -2266,13 +2466,13 @@
       <c r="M56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N56" s="3" t="e">
+      <c r="N56" s="3">
         <f>AVERAGE(N5:N54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="3" t="e">
+        <v>2833.6719744977054</v>
+      </c>
+      <c r="O56" s="3">
         <f>AVERAGE(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>19796.516052791809</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>2</v>
@@ -2312,13 +2512,13 @@
       <c r="M57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3" t="e">
+      <c r="N57" s="3">
         <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="3" t="e">
+        <v>65.068280873588719</v>
+      </c>
+      <c r="O57" s="3">
         <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>1250.96338720674</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>3</v>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +575,12 @@
       <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3">
+        <v>2788.3829854999999</v>
+      </c>
+      <c r="T5" s="3">
+        <v>19310.36000581818</v>
+      </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -613,8 +617,12 @@
         <f>R5+1</f>
         <v>2</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="3">
+        <v>2790.81623425</v>
+      </c>
+      <c r="T6" s="3">
+        <v>21644.502813545449</v>
+      </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
@@ -651,8 +659,12 @@
         <f t="shared" ref="R7:R54" si="3">R6+1</f>
         <v>3</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="3">
+        <v>2855.804598772726</v>
+      </c>
+      <c r="T7" s="3">
+        <v>19433.344400999991</v>
+      </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -689,8 +701,12 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="3">
+        <v>2838.6101218181821</v>
+      </c>
+      <c r="T8" s="3">
+        <v>21149.853778090899</v>
+      </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -727,8 +743,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3">
+        <v>2827.6495906136361</v>
+      </c>
+      <c r="T9" s="3">
+        <v>17065.156151090909</v>
+      </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -765,8 +785,12 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="3">
+        <v>2832.0613510227272</v>
+      </c>
+      <c r="T10" s="3">
+        <v>18811.352593636359</v>
+      </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -803,8 +827,12 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="3">
+        <v>2745.1947959090899</v>
+      </c>
+      <c r="T11" s="3">
+        <v>20118.164264090901</v>
+      </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -841,8 +869,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="3">
+        <v>2809.1363215909091</v>
+      </c>
+      <c r="T12" s="3">
+        <v>20924.492259272731</v>
+      </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -879,8 +911,12 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="3">
+        <v>2910.93786159091</v>
+      </c>
+      <c r="T13" s="3">
+        <v>18178.352027909081</v>
+      </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -917,8 +953,12 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="3">
+        <v>2867.806979090909</v>
+      </c>
+      <c r="T14" s="3">
+        <v>18063.04353881818</v>
+      </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -955,8 +995,12 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="3">
+        <v>2894.85082375</v>
+      </c>
+      <c r="T15" s="3">
+        <v>17960.769985090908</v>
+      </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -993,8 +1037,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3">
+        <v>2828.5429050909088</v>
+      </c>
+      <c r="T16" s="3">
+        <v>20119.651404363631</v>
+      </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -1031,8 +1079,12 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3">
+        <v>2733.164880340908</v>
+      </c>
+      <c r="T17" s="3">
+        <v>21644.570620545452</v>
+      </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -1069,8 +1121,12 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3">
+        <v>2705.9289659545452</v>
+      </c>
+      <c r="T18" s="3">
+        <v>23864.512096454539</v>
+      </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -1107,8 +1163,12 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="3">
+        <v>2655.7523583181819</v>
+      </c>
+      <c r="T19" s="3">
+        <v>24958.315509545449</v>
+      </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -1145,8 +1205,12 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3">
+        <v>2723.3946965227269</v>
+      </c>
+      <c r="T20" s="3">
+        <v>20962.44124872726</v>
+      </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -1183,8 +1247,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="3">
+        <v>2875.7032392954552</v>
+      </c>
+      <c r="T21" s="3">
+        <v>18339.34045499999</v>
+      </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -1221,8 +1289,12 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="3">
+        <v>2721.3480034090908</v>
+      </c>
+      <c r="T22" s="3">
+        <v>23269.06675490909</v>
+      </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -1259,8 +1331,12 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="3">
+        <v>2744.4802372727281</v>
+      </c>
+      <c r="T23" s="3">
+        <v>21542.566497545449</v>
+      </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -1297,8 +1373,12 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3">
+        <v>2920.2274446818178</v>
+      </c>
+      <c r="T24" s="3">
+        <v>18330.88812209091</v>
+      </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -1335,8 +1415,12 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="3">
+        <v>2696.1658483409092</v>
+      </c>
+      <c r="T25" s="3">
+        <v>22827.127369090911</v>
+      </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -1373,8 +1457,12 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3">
+        <v>2855.935536704545</v>
+      </c>
+      <c r="T26" s="3">
+        <v>19638.762176</v>
+      </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1411,8 +1499,12 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="3">
+        <v>2785.6917968409089</v>
+      </c>
+      <c r="T27" s="3">
+        <v>22393.746108090909</v>
+      </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -1449,8 +1541,12 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="3">
+        <v>2899.464716545453</v>
+      </c>
+      <c r="T28" s="3">
+        <v>17829.180133818179</v>
+      </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -1487,8 +1583,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="3">
+        <v>2778.24736325</v>
+      </c>
+      <c r="T29" s="3">
+        <v>18731.592356363632</v>
+      </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -1525,8 +1625,12 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="3">
+        <v>2738.957483818182</v>
+      </c>
+      <c r="T30" s="3">
+        <v>19639.517946999989</v>
+      </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -1563,8 +1667,12 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="3">
+        <v>2828.1391997045448</v>
+      </c>
+      <c r="T31" s="3">
+        <v>18384.754042727269</v>
+      </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -1601,8 +1709,12 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="3">
+        <v>2783.0582815454541</v>
+      </c>
+      <c r="T32" s="3">
+        <v>18637.323301</v>
+      </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -1639,8 +1751,12 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="3">
+        <v>2798.5024943409089</v>
+      </c>
+      <c r="T33" s="3">
+        <v>21204.743474545448</v>
+      </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -1677,8 +1793,12 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="3">
+        <v>2873.0716337727272</v>
+      </c>
+      <c r="T34" s="3">
+        <v>20010.997476</v>
+      </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -1715,8 +1835,12 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="3">
+        <v>2900.2750888863638</v>
+      </c>
+      <c r="T35" s="3">
+        <v>19380.42285036363</v>
+      </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -1753,8 +1877,12 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="S36" s="3">
+        <v>2852.8841954318191</v>
+      </c>
+      <c r="T36" s="3">
+        <v>18516.84681618182</v>
+      </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -1791,8 +1919,12 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="3">
+        <v>2770.5342150454539</v>
+      </c>
+      <c r="T37" s="3">
+        <v>20449.70944345454</v>
+      </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -1829,8 +1961,12 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="S38" s="3">
+        <v>2744.1103640909091</v>
+      </c>
+      <c r="T38" s="3">
+        <v>21041.893743181819</v>
+      </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -1867,8 +2003,12 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="3">
+        <v>2867.0354986363632</v>
+      </c>
+      <c r="T39" s="3">
+        <v>18647.03928627272</v>
+      </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -1905,8 +2045,12 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="3">
+        <v>2779.4441988863641</v>
+      </c>
+      <c r="T40" s="3">
+        <v>18939.73535409091</v>
+      </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -1943,8 +2087,12 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="3">
+        <v>2745.2847175000002</v>
+      </c>
+      <c r="T41" s="3">
+        <v>21106.589515727272</v>
+      </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -1981,8 +2129,12 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="3">
+        <v>2785.1399833863629</v>
+      </c>
+      <c r="T42" s="3">
+        <v>20051.223103818171</v>
+      </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -2019,8 +2171,12 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="S43" s="3">
+        <v>2721.3551352045451</v>
+      </c>
+      <c r="T43" s="3">
+        <v>23234.030706363628</v>
+      </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -2057,8 +2213,12 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="S44" s="3">
+        <v>2880.6295086363639</v>
+      </c>
+      <c r="T44" s="3">
+        <v>17293.145449636359</v>
+      </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -2095,8 +2255,12 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="S45" s="3">
+        <v>2846.8202731136362</v>
+      </c>
+      <c r="T45" s="3">
+        <v>19151.196095454539</v>
+      </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -2133,8 +2297,12 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="S46" s="3">
+        <v>2778.840435204545</v>
+      </c>
+      <c r="T46" s="3">
+        <v>18081.365997272718</v>
+      </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -2171,8 +2339,12 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="S47" s="3">
+        <v>2672.9546187045448</v>
+      </c>
+      <c r="T47" s="3">
+        <v>23746.294160363632</v>
+      </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -2209,8 +2381,12 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="S48" s="3">
+        <v>2843.86794525</v>
+      </c>
+      <c r="T48" s="3">
+        <v>20392.96970436363</v>
+      </c>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -2247,8 +2423,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="S49" s="3">
+        <v>2759.6820140227269</v>
+      </c>
+      <c r="T49" s="3">
+        <v>22381.90146736363</v>
+      </c>
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -2285,8 +2465,12 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="S50" s="3">
+        <v>2878.817411977273</v>
+      </c>
+      <c r="T50" s="3">
+        <v>18497.424357272721</v>
+      </c>
     </row>
     <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -2323,8 +2507,12 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="S51" s="3">
+        <v>2811.0828713636361</v>
+      </c>
+      <c r="T51" s="3">
+        <v>19636.859455545451</v>
+      </c>
     </row>
     <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -2361,8 +2549,12 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="S52" s="3">
+        <v>2748.4959075909078</v>
+      </c>
+      <c r="T52" s="3">
+        <v>20067.022936909081</v>
+      </c>
     </row>
     <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -2399,8 +2591,12 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="S53" s="3">
+        <v>2843.9603828636359</v>
+      </c>
+      <c r="T53" s="3">
+        <v>18636.77519827272</v>
+      </c>
     </row>
     <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -2437,8 +2633,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="S54" s="3">
+        <v>2669.8149414090908</v>
+      </c>
+      <c r="T54" s="3">
+        <v>23534.894932818181</v>
+      </c>
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
@@ -2477,13 +2677,13 @@
       <c r="R56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S56" s="3" t="e">
+      <c r="S56" s="3">
         <f>AVERAGE(S5:S54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="3" t="e">
+        <v>2800.1611691372741</v>
+      </c>
+      <c r="T56" s="3">
         <f>AVERAGE(T5:T54)</f>
-        <v>#DIV/0!</v>
+        <v>20155.516589738178</v>
       </c>
     </row>
     <row r="57" spans="3:20" x14ac:dyDescent="0.25">
@@ -2523,13 +2723,13 @@
       <c r="R57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3" t="e">
+      <c r="S57" s="3">
         <f>_xlfn.STDEV.S(S5:S54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="3" t="e">
+        <v>68.266078013454219</v>
+      </c>
+      <c r="T57" s="3">
         <f>_xlfn.STDEV.S(T5:T54)</f>
-        <v>#DIV/0!</v>
+        <v>1919.7437021329295</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2742,7 @@
   <dimension ref="A4:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="error" sheetId="1" r:id="rId1"/>
+    <sheet name="mae" sheetId="1" r:id="rId1"/>
     <sheet name="significance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>test (MSE)</t>
+  </si>
+  <si>
+    <t>train (R2)</t>
+  </si>
+  <si>
+    <t>test (R2)</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T57"/>
+  <dimension ref="C3:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +500,13 @@
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="19" max="20" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,8 +523,16 @@
         <v>24</v>
       </c>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -543,8 +561,22 @@
       <c r="T4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -581,8 +613,22 @@
       <c r="T5" s="3">
         <v>19310.36000581818</v>
       </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.90825260931177343</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.41015617807278831</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -623,8 +669,24 @@
       <c r="T6" s="3">
         <v>21644.502813545449</v>
       </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W6" s="2">
+        <f>W5+1</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="AB6" s="2">
+        <f>AB5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.9126849074256651</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.32321272321548311</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -665,8 +727,24 @@
       <c r="T7" s="3">
         <v>19433.344400999991</v>
       </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:W54" si="4">W6+1</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AB7" s="2">
+        <f t="shared" ref="AB7:AB54" si="5">AB6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0.91095261549529316</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.38546507998697821</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -707,8 +785,24 @@
       <c r="T8" s="3">
         <v>21149.853778090899</v>
       </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W8" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="AB8" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.91018416204918406</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.41577139520704159</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -749,8 +843,24 @@
       <c r="T9" s="3">
         <v>17065.156151090909</v>
       </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W9" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="AB9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.9095211870832578</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.40716308188498118</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -791,8 +901,24 @@
       <c r="T10" s="3">
         <v>18811.352593636359</v>
       </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="AB10" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0.91372085481715626</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.37194676611159122</v>
+      </c>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -833,8 +959,24 @@
       <c r="T11" s="3">
         <v>20118.164264090901</v>
       </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W11" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="AB11" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0.91087128150368357</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.39580000305454188</v>
+      </c>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -875,8 +1017,24 @@
       <c r="T12" s="3">
         <v>20924.492259272731</v>
       </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W12" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="AB12" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0.90717338711137618</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0.41467184181656619</v>
+      </c>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -917,8 +1075,24 @@
       <c r="T13" s="3">
         <v>18178.352027909081</v>
       </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W13" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="AB13" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0.91216070734316945</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.33510426955356359</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -959,8 +1133,24 @@
       <c r="T14" s="3">
         <v>18063.04353881818</v>
       </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W14" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="AB14" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0.914689935357477</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0.31817133091947569</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1001,8 +1191,24 @@
       <c r="T15" s="3">
         <v>17960.769985090908</v>
       </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="AB15" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0.91357165498643633</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.37195363422800759</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1043,8 +1249,24 @@
       <c r="T16" s="3">
         <v>20119.651404363631</v>
       </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W16" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="AB16" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0.91265774619421247</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.37031821941627019</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1085,8 +1307,24 @@
       <c r="T17" s="3">
         <v>21644.570620545452</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0.91144195210259027</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.36645052767912362</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1127,8 +1365,24 @@
       <c r="T18" s="3">
         <v>23864.512096454539</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="AB18" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.91437809738098341</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.35750366213192403</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1169,8 +1423,24 @@
       <c r="T19" s="3">
         <v>24958.315509545449</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="AB19" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.91401533871239693</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.37703458786180311</v>
+      </c>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1211,8 +1481,24 @@
       <c r="T20" s="3">
         <v>20962.44124872726</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0.91569852216512504</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0.33443651139322339</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1253,8 +1539,24 @@
       <c r="T21" s="3">
         <v>18339.34045499999</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W21" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0.91231701620529937</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.39485982284200549</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1295,8 +1597,24 @@
       <c r="T22" s="3">
         <v>23269.06675490909</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W22" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="AB22" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.91044190636464306</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.35476590368169381</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1337,8 +1655,24 @@
       <c r="T23" s="3">
         <v>21542.566497545449</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W23" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="AB23" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0.91406183040897027</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0.3873310974642783</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1379,8 +1713,24 @@
       <c r="T24" s="3">
         <v>18330.88812209091</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W24" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="AB24" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0.91034721542999764</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0.3208017080563319</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1421,8 +1771,24 @@
       <c r="T25" s="3">
         <v>22827.127369090911</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W25" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0.91158730883461081</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.37908976977632758</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1463,8 +1829,24 @@
       <c r="T26" s="3">
         <v>19638.762176</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W26" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="AB26" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0.91308906167123649</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0.35824994174572472</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1505,8 +1887,24 @@
       <c r="T27" s="3">
         <v>22393.746108090909</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W27" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="AB27" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0.91036267756838585</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0.34693085845024818</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1547,8 +1945,24 @@
       <c r="T28" s="3">
         <v>17829.180133818179</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W28" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="AB28" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0.90934280741105733</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0.43399170885135818</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1589,8 +2003,24 @@
       <c r="T29" s="3">
         <v>18731.592356363632</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W29" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="AB29" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0.90808739249056647</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0.40714137180518428</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1631,8 +2061,24 @@
       <c r="T30" s="3">
         <v>19639.517946999989</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W30" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="AB30" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0.90795989804363297</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0.37151850578025131</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1673,8 +2119,24 @@
       <c r="T31" s="3">
         <v>18384.754042727269</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W31" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="AB31" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0.91176172459314075</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0.40672577650177721</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1715,8 +2177,24 @@
       <c r="T32" s="3">
         <v>18637.323301</v>
       </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W32" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="AB32" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0.90823528952940469</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0.41756960156652079</v>
+      </c>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1757,8 +2235,24 @@
       <c r="T33" s="3">
         <v>21204.743474545448</v>
       </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W33" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="AB33" s="2">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0.91482446469544032</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0.38843091085729492</v>
+      </c>
+    </row>
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1799,8 +2293,24 @@
       <c r="T34" s="3">
         <v>20010.997476</v>
       </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W34" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="AB34" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0.90999257370175379</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0.36754499116941308</v>
+      </c>
+    </row>
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1841,8 +2351,24 @@
       <c r="T35" s="3">
         <v>19380.42285036363</v>
       </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W35" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="AB35" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0.91318260928813422</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0.35933712743070989</v>
+      </c>
+    </row>
+    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1883,8 +2409,24 @@
       <c r="T36" s="3">
         <v>18516.84681618182</v>
       </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W36" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="AB36" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0.91061214277169622</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>0.38527046350906119</v>
+      </c>
+    </row>
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1925,8 +2467,24 @@
       <c r="T37" s="3">
         <v>20449.70944345454</v>
       </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W37" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="AB37" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0.91326502743242977</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0.27968968455870918</v>
+      </c>
+    </row>
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1967,8 +2525,24 @@
       <c r="T38" s="3">
         <v>21041.893743181819</v>
       </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W38" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="AB38" s="2">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0.90971828002517097</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>0.39625622902220142</v>
+      </c>
+    </row>
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2009,8 +2583,24 @@
       <c r="T39" s="3">
         <v>18647.03928627272</v>
       </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W39" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="AB39" s="2">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0.91153684171572258</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0.40996631526493921</v>
+      </c>
+    </row>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2051,8 +2641,24 @@
       <c r="T40" s="3">
         <v>18939.73535409091</v>
       </c>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W40" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="AB40" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0.91197946254311546</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0.36135968844271887</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2093,8 +2699,24 @@
       <c r="T41" s="3">
         <v>21106.589515727272</v>
       </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W41" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="AB41" s="2">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0.9106186605979133</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0.4101975092311595</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2135,8 +2757,24 @@
       <c r="T42" s="3">
         <v>20051.223103818171</v>
       </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W42" s="2">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="AB42" s="2">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0.91287897072786572</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0.37363956414253041</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2177,8 +2815,24 @@
       <c r="T43" s="3">
         <v>23234.030706363628</v>
       </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W43" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="AB43" s="2">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0.91004944099005003</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0.36031826422647939</v>
+      </c>
+    </row>
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2219,8 +2873,24 @@
       <c r="T44" s="3">
         <v>17293.145449636359</v>
       </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W44" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="AB44" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0.9134777543626007</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0.36579279890933458</v>
+      </c>
+    </row>
+    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2261,8 +2931,24 @@
       <c r="T45" s="3">
         <v>19151.196095454539</v>
       </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W45" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="AB45" s="2">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0.9112062000789718</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0.39937289312887381</v>
+      </c>
+    </row>
+    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2303,8 +2989,24 @@
       <c r="T46" s="3">
         <v>18081.365997272718</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W46" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="AB46" s="2">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0.9125330474475366</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0.37003915099668327</v>
+      </c>
+    </row>
+    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2345,8 +3047,24 @@
       <c r="T47" s="3">
         <v>23746.294160363632</v>
       </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W47" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="AB47" s="2">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0.9137208131034158</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0.35753023069049661</v>
+      </c>
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2387,8 +3105,24 @@
       <c r="T48" s="3">
         <v>20392.96970436363</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W48" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="AB48" s="2">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0.91331983866405464</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0.32021602198157367</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2429,8 +3163,24 @@
       <c r="T49" s="3">
         <v>22381.90146736363</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W49" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="AB49" s="2">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0.91184654390388364</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0.37133143410715708</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2471,8 +3221,24 @@
       <c r="T50" s="3">
         <v>18497.424357272721</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W50" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="AB50" s="2">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0.91012718307000107</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0.37317872638308719</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2513,8 +3279,24 @@
       <c r="T51" s="3">
         <v>19636.859455545451</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W51" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="AB51" s="2">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0.91473064071072496</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0.32576476341149679</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2555,8 +3337,24 @@
       <c r="T52" s="3">
         <v>20067.022936909081</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W52" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="AB52" s="2">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0.90978851623138757</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0.44630727267738479</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2597,8 +3395,24 @@
       <c r="T53" s="3">
         <v>18636.77519827272</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W53" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="AB53" s="2">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0.90926430292900984</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0.40700674546301469</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2639,8 +3453,24 @@
       <c r="T54" s="3">
         <v>23534.894932818181</v>
       </c>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W54" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="AB54" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0.91258307218431822</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0.3868213792977796</v>
+      </c>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
@@ -2685,8 +3515,30 @@
         <f>AVERAGE(T5:T54)</f>
         <v>20155.516589738178</v>
       </c>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="W56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="3" t="e">
+        <f>AVERAGE(X5:X54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y56" s="3" t="e">
+        <f>AVERAGE(Y5:Y54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="3">
+        <f>AVERAGE(AC5:AC54)</f>
+        <v>0.91161650949531881</v>
+      </c>
+      <c r="AD56" s="3">
+        <f>AVERAGE(AD5:AD54)</f>
+        <v>0.37499016087914322</v>
+      </c>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +3583,32 @@
         <f>_xlfn.STDEV.S(T5:T54)</f>
         <v>1919.7437021329295</v>
       </c>
+      <c r="W57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="e">
+        <f>_xlfn.STDEV.S(X5:X54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y57" s="3" t="e">
+        <f>_xlfn.STDEV.S(Y5:Y54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3">
+        <f>_xlfn.STDEV.S(AC5:AC54)</f>
+        <v>2.0499508463418304E-3</v>
+      </c>
+      <c r="AD57" s="3">
+        <f>_xlfn.STDEV.S(AD5:AD54)</f>
+        <v>3.3083329176637234E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="C3:AD57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,12 @@
       <c r="W5" s="2">
         <v>1</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="X5" s="3">
+        <v>0.91685320978340012</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.37057366514701851</v>
+      </c>
       <c r="AB5" s="2">
         <v>1</v>
       </c>
@@ -673,8 +677,12 @@
         <f>W5+1</f>
         <v>2</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="X6" s="3">
+        <v>0.91492698184312449</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.40239116665089292</v>
+      </c>
       <c r="AB6" s="2">
         <f>AB5+1</f>
         <v>2</v>
@@ -731,8 +739,12 @@
         <f t="shared" ref="W7:W54" si="4">W6+1</f>
         <v>3</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="X7" s="3">
+        <v>0.9106540113230992</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.42175716619077852</v>
+      </c>
       <c r="AB7" s="2">
         <f t="shared" ref="AB7:AB54" si="5">AB6+1</f>
         <v>3</v>
@@ -789,8 +801,12 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="X8" s="3">
+        <v>0.91213196672260932</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.40594232375289641</v>
+      </c>
       <c r="AB8" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -847,8 +863,12 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="X9" s="3">
+        <v>0.91353090376933421</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0.42106433687033551</v>
+      </c>
       <c r="AB9" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -905,8 +925,12 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="X10" s="3">
+        <v>0.9156500350838519</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0.41852666741979788</v>
+      </c>
       <c r="AB10" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -963,8 +987,12 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="X11" s="3">
+        <v>0.91659692964835804</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0.36669531676453732</v>
+      </c>
       <c r="AB11" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -1021,8 +1049,12 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="X12" s="3">
+        <v>0.91427428929436594</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.41215024198354389</v>
+      </c>
       <c r="AB12" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1079,8 +1111,12 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="X13" s="3">
+        <v>0.91517095254500458</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.389883486107508</v>
+      </c>
       <c r="AB13" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1137,8 +1173,12 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="X14" s="3">
+        <v>0.91575717754649388</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.38321887453278047</v>
+      </c>
       <c r="AB14" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1195,8 +1235,12 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="X15" s="3">
+        <v>0.91549181563959903</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.39378973126585298</v>
+      </c>
       <c r="AB15" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1253,8 +1297,12 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="X16" s="3">
+        <v>0.91421275791182255</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0.40144916744777898</v>
+      </c>
       <c r="AB16" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1311,8 +1359,12 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="X17" s="3">
+        <v>0.91562378579620851</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.38850047148523231</v>
+      </c>
       <c r="AB17" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1369,8 +1421,12 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="X18" s="3">
+        <v>0.91696227567784339</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.39800392186676559</v>
+      </c>
       <c r="AB18" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1427,8 +1483,12 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="X19" s="3">
+        <v>0.91677123692571116</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0.38688868986652591</v>
+      </c>
       <c r="AB19" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1485,8 +1545,12 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="X20" s="3">
+        <v>0.91672739945557624</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0.35140245925639041</v>
+      </c>
       <c r="AB20" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1543,8 +1607,12 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="X21" s="3">
+        <v>0.91049265590539374</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0.40524829305213261</v>
+      </c>
       <c r="AB21" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1601,8 +1669,12 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="X22" s="3">
+        <v>0.91614993147766244</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0.36448270636078473</v>
+      </c>
       <c r="AB22" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1659,8 +1731,12 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="X23" s="3">
+        <v>0.91660197251146858</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0.34946088781980522</v>
+      </c>
       <c r="AB23" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1717,8 +1793,12 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="X24" s="3">
+        <v>0.91687719446491578</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.37750395540604997</v>
+      </c>
       <c r="AB24" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1775,8 +1855,12 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="X25" s="3">
+        <v>0.91641791507233139</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0.42766004674476388</v>
+      </c>
       <c r="AB25" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1833,8 +1917,12 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="X26" s="3">
+        <v>0.9158221835632615</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0.3829665901286301</v>
+      </c>
       <c r="AB26" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1891,8 +1979,12 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="X27" s="3">
+        <v>0.91383980593886383</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0.39786585131311908</v>
+      </c>
       <c r="AB27" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1949,8 +2041,12 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="X28" s="3">
+        <v>0.9150924078737559</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.39894562619419249</v>
+      </c>
       <c r="AB28" s="2">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -2007,8 +2103,12 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="X29" s="3">
+        <v>0.91351261427058617</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.42979403127747873</v>
+      </c>
       <c r="AB29" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -2065,8 +2165,12 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="X30" s="3">
+        <v>0.91461155388097093</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.35423143814587299</v>
+      </c>
       <c r="AB30" s="2">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -2123,8 +2227,12 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
+      <c r="X31" s="3">
+        <v>0.91544198136758992</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0.39638576093478339</v>
+      </c>
       <c r="AB31" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -2181,8 +2289,12 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="X32" s="3">
+        <v>0.91437476269748863</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0.36851118182246911</v>
+      </c>
       <c r="AB32" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -2239,8 +2351,12 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
+      <c r="X33" s="3">
+        <v>0.91120283776065036</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0.41135420330047567</v>
+      </c>
       <c r="AB33" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -2297,8 +2413,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
+      <c r="X34" s="3">
+        <v>0.91642707372481824</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.35808043306993081</v>
+      </c>
       <c r="AB34" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -2355,8 +2475,12 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
+      <c r="X35" s="3">
+        <v>0.91513324745205105</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0.38350263819600139</v>
+      </c>
       <c r="AB35" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2413,8 +2537,12 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
+      <c r="X36" s="3">
+        <v>0.91025368796991857</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.4284228723465936</v>
+      </c>
       <c r="AB36" s="2">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2471,8 +2599,12 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
+      <c r="X37" s="3">
+        <v>0.91471239086309208</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.40130147180435211</v>
+      </c>
       <c r="AB37" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2529,8 +2661,12 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
+      <c r="X38" s="3">
+        <v>0.91224354462973722</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.44612813688276542</v>
+      </c>
       <c r="AB38" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2587,8 +2723,12 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
+      <c r="X39" s="3">
+        <v>0.91622603765873656</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.39525011199822652</v>
+      </c>
       <c r="AB39" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2645,8 +2785,12 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
+      <c r="X40" s="3">
+        <v>0.91389577188280358</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.44196498897783959</v>
+      </c>
       <c r="AB40" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2703,8 +2847,12 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
+      <c r="X41" s="3">
+        <v>0.91397863806454671</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.37669885304542428</v>
+      </c>
       <c r="AB41" s="2">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -2761,8 +2909,12 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
+      <c r="X42" s="3">
+        <v>0.91479329835061973</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0.37899740045328578</v>
+      </c>
       <c r="AB42" s="2">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -2819,8 +2971,12 @@
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
+      <c r="X43" s="3">
+        <v>0.91454060063642195</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0.39015466902732732</v>
+      </c>
       <c r="AB43" s="2">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -2877,8 +3033,12 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
+      <c r="X44" s="3">
+        <v>0.91480631405751345</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0.39461075931423439</v>
+      </c>
       <c r="AB44" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -2935,8 +3095,12 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
+      <c r="X45" s="3">
+        <v>0.91387707270442442</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0.41518115925110088</v>
+      </c>
       <c r="AB45" s="2">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -2993,8 +3157,12 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
+      <c r="X46" s="3">
+        <v>0.91312874049649806</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.40626331869509258</v>
+      </c>
       <c r="AB46" s="2">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -3051,8 +3219,12 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
+      <c r="X47" s="3">
+        <v>0.91380819739250074</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.38088042315041371</v>
+      </c>
       <c r="AB47" s="2">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -3109,8 +3281,12 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
+      <c r="X48" s="3">
+        <v>0.91192658781867442</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0.41115672169560058</v>
+      </c>
       <c r="AB48" s="2">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -3167,8 +3343,12 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
+      <c r="X49" s="3">
+        <v>0.91547062276159674</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0.39273984543491641</v>
+      </c>
       <c r="AB49" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -3225,8 +3405,12 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
+      <c r="X50" s="3">
+        <v>0.91396028491350745</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0.39451856910580979</v>
+      </c>
       <c r="AB50" s="2">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -3283,8 +3467,12 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
+      <c r="X51" s="3">
+        <v>0.91407568963509922</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0.41128920442367878</v>
+      </c>
       <c r="AB51" s="2">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -3341,8 +3529,12 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
+      <c r="X52" s="3">
+        <v>0.91720723119884606</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0.3978722984193247</v>
+      </c>
       <c r="AB52" s="2">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -3399,8 +3591,12 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
+      <c r="X53" s="3">
+        <v>0.91539179849624819</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0.41805219370924179</v>
+      </c>
       <c r="AB53" s="2">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -3457,8 +3653,12 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="X54" s="3">
+        <v>0.91427559461495422</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0.38935302134494032</v>
+      </c>
       <c r="AB54" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -3518,13 +3718,13 @@
       <c r="W56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X56" s="3" t="e">
+      <c r="X56" s="3">
         <f>AVERAGE(X5:X54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y56" s="3" t="e">
+        <v>0.91463811942147899</v>
+      </c>
+      <c r="Y56" s="3">
         <f>AVERAGE(Y5:Y54)</f>
-        <v>#DIV/0!</v>
+        <v>0.39578134698910605</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>2</v>
@@ -3586,13 +3786,13 @@
       <c r="W57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X57" s="3" t="e">
+      <c r="X57" s="3">
         <f>_xlfn.STDEV.S(X5:X54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y57" s="3" t="e">
+        <v>1.7512715726983956E-3</v>
+      </c>
+      <c r="Y57" s="3">
         <f>_xlfn.STDEV.S(Y5:Y54)</f>
-        <v>#DIV/0!</v>
+        <v>2.232824238662065E-2</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>3</v>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
-    <sheet name="significance" sheetId="2" r:id="rId2"/>
+    <sheet name="mse" sheetId="3" r:id="rId2"/>
+    <sheet name="r2" sheetId="4" r:id="rId3"/>
+    <sheet name="significance" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -107,6 +109,9 @@
   </si>
   <si>
     <t>test (R2)</t>
+  </si>
+  <si>
+    <t>Random Forest-100 (superdataset-24-f 3Y.csv)</t>
   </si>
 </sst>
 </file>
@@ -487,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG38" sqref="AG38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,20 +521,14 @@
       </c>
       <c r="J3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="W3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.25">
@@ -549,32 +548,20 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
@@ -598,39 +585,17 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
-        <v>2885.140409918813</v>
-      </c>
-      <c r="O5" s="3">
-        <v>19716.934715172902</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2788.3829854999999</v>
-      </c>
-      <c r="T5" s="3">
-        <v>19310.36000581818</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0.91685320978340012</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0.37057366514701851</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.90825260931177343</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0.41015617807278831</v>
-      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
     </row>
     <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -657,42 +622,17 @@
         <f>M5+1</f>
         <v>2</v>
       </c>
-      <c r="N6" s="3">
-        <v>2917.400675767738</v>
-      </c>
-      <c r="O6" s="3">
-        <v>18553.49103683839</v>
-      </c>
-      <c r="R6" s="2">
-        <f>R5+1</f>
-        <v>2</v>
-      </c>
-      <c r="S6" s="3">
-        <v>2790.81623425</v>
-      </c>
-      <c r="T6" s="3">
-        <v>21644.502813545449</v>
-      </c>
-      <c r="W6" s="2">
-        <f>W5+1</f>
-        <v>2</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0.91492698184312449</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0.40239116665089292</v>
-      </c>
-      <c r="AB6" s="2">
-        <f>AB5+1</f>
-        <v>2</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0.9126849074256651</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>0.32321272321548311</v>
-      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
     </row>
     <row r="7" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
@@ -719,42 +659,17 @@
         <f t="shared" ref="M7:M54" si="2">M6+1</f>
         <v>3</v>
       </c>
-      <c r="N7" s="3">
-        <v>2942.5704854041651</v>
-      </c>
-      <c r="O7" s="3">
-        <v>18662.16895772759</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:R54" si="3">R6+1</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="3">
-        <v>2855.804598772726</v>
-      </c>
-      <c r="T7" s="3">
-        <v>19433.344400999991</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" ref="W7:W54" si="4">W6+1</f>
-        <v>3</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0.9106540113230992</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0.42175716619077852</v>
-      </c>
-      <c r="AB7" s="2">
-        <f t="shared" ref="AB7:AB54" si="5">AB6+1</f>
-        <v>3</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0.91095261549529316</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0.38546507998697821</v>
-      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -781,42 +696,17 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>2791.2388276738429</v>
-      </c>
-      <c r="O8" s="3">
-        <v>20745.58181721947</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2838.6101218181821</v>
-      </c>
-      <c r="T8" s="3">
-        <v>21149.853778090899</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0.91213196672260932</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0.40594232375289641</v>
-      </c>
-      <c r="AB8" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0.91018416204918406</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0.41577139520704159</v>
-      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -843,42 +733,17 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N9" s="3">
-        <v>2883.4160241793152</v>
-      </c>
-      <c r="O9" s="3">
-        <v>18213.051568313331</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2827.6495906136361</v>
-      </c>
-      <c r="T9" s="3">
-        <v>17065.156151090909</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0.91353090376933421</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0.42106433687033551</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0.9095211870832578</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0.40716308188498118</v>
-      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -905,42 +770,17 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N10" s="3">
-        <v>2849.341758436286</v>
-      </c>
-      <c r="O10" s="3">
-        <v>20890.997923712061</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2832.0613510227272</v>
-      </c>
-      <c r="T10" s="3">
-        <v>18811.352593636359</v>
-      </c>
-      <c r="W10" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0.9156500350838519</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0.41852666741979788</v>
-      </c>
-      <c r="AB10" s="2">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0.91372085481715626</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0.37194676611159122</v>
-      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -967,42 +807,17 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="3">
-        <v>2893.916529597599</v>
-      </c>
-      <c r="O11" s="3">
-        <v>18006.12510853916</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S11" s="3">
-        <v>2745.1947959090899</v>
-      </c>
-      <c r="T11" s="3">
-        <v>20118.164264090901</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0.91659692964835804</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0.36669531676453732</v>
-      </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0.91087128150368357</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0.39580000305454188</v>
-      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -1029,42 +844,17 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>2871.0047176138369</v>
-      </c>
-      <c r="O12" s="3">
-        <v>19187.008482709949</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2809.1363215909091</v>
-      </c>
-      <c r="T12" s="3">
-        <v>20924.492259272731</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0.91427428929436594</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0.41215024198354389</v>
-      </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0.90717338711137618</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0.41467184181656619</v>
-      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -1091,42 +881,17 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N13" s="3">
-        <v>2876.5212187433808</v>
-      </c>
-      <c r="O13" s="3">
-        <v>20000.70413528581</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="S13" s="3">
-        <v>2910.93786159091</v>
-      </c>
-      <c r="T13" s="3">
-        <v>18178.352027909081</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0.91517095254500458</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0.389883486107508</v>
-      </c>
-      <c r="AB13" s="2">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0.91216070734316945</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0.33510426955356359</v>
-      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -1153,42 +918,17 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>2688.3978799682309</v>
-      </c>
-      <c r="O14" s="3">
-        <v>20661.954152011291</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2867.806979090909</v>
-      </c>
-      <c r="T14" s="3">
-        <v>18063.04353881818</v>
-      </c>
-      <c r="W14" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0.91575717754649388</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.38321887453278047</v>
-      </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0.914689935357477</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0.31817133091947569</v>
-      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -1215,42 +955,17 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N15" s="3">
-        <v>2721.5533336392518</v>
-      </c>
-      <c r="O15" s="3">
-        <v>21834.885481227939</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2894.85082375</v>
-      </c>
-      <c r="T15" s="3">
-        <v>17960.769985090908</v>
-      </c>
-      <c r="W15" s="2">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0.91549181563959903</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.39378973126585298</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0.91357165498643633</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0.37195363422800759</v>
-      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -1277,42 +992,17 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="3">
-        <v>2857.1864841863739</v>
-      </c>
-      <c r="O16" s="3">
-        <v>20066.616100141138</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2828.5429050909088</v>
-      </c>
-      <c r="T16" s="3">
-        <v>20119.651404363631</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0.91421275791182255</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.40144916744777898</v>
-      </c>
-      <c r="AB16" s="2">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0.91265774619421247</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0.37031821941627019</v>
-      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -1339,42 +1029,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N17" s="3">
-        <v>2817.5808289092829</v>
-      </c>
-      <c r="O17" s="3">
-        <v>20115.171759985878</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2733.164880340908</v>
-      </c>
-      <c r="T17" s="3">
-        <v>21644.570620545452</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0.91562378579620851</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0.38850047148523231</v>
-      </c>
-      <c r="AB17" s="2">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0.91144195210259027</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0.36645052767912362</v>
-      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -1401,42 +1066,17 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N18" s="3">
-        <v>2865.9792240381221</v>
-      </c>
-      <c r="O18" s="3">
-        <v>19621.118954340149</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2705.9289659545452</v>
-      </c>
-      <c r="T18" s="3">
-        <v>23864.512096454539</v>
-      </c>
-      <c r="W18" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0.91696227567784339</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.39800392186676559</v>
-      </c>
-      <c r="AB18" s="2">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0.91437809738098341</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0.35750366213192403</v>
-      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -1463,42 +1103,17 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N19" s="3">
-        <v>2783.3344844158132</v>
-      </c>
-      <c r="O19" s="3">
-        <v>20577.722999788279</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="S19" s="3">
-        <v>2655.7523583181819</v>
-      </c>
-      <c r="T19" s="3">
-        <v>24958.315509545449</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="X19" s="3">
-        <v>0.91677123692571116</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.38688868986652591</v>
-      </c>
-      <c r="AB19" s="2">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>0.91401533871239693</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>0.37703458786180311</v>
-      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
     </row>
     <row r="20" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -1525,42 +1140,17 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N20" s="3">
-        <v>2802.8407185315918</v>
-      </c>
-      <c r="O20" s="3">
-        <v>18214.89993338038</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2723.3946965227269</v>
-      </c>
-      <c r="T20" s="3">
-        <v>20962.44124872726</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0.91672739945557624</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.35140245925639041</v>
-      </c>
-      <c r="AB20" s="2">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0.91569852216512504</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>0.33443651139322339</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
     </row>
     <row r="21" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -1587,42 +1177,17 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N21" s="3">
-        <v>2876.7315134486398</v>
-      </c>
-      <c r="O21" s="3">
-        <v>20307.689022794639</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="S21" s="3">
-        <v>2875.7032392954552</v>
-      </c>
-      <c r="T21" s="3">
-        <v>18339.34045499999</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0.91049265590539374</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0.40524829305213261</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0.91231701620529937</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>0.39485982284200549</v>
-      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -1649,42 +1214,17 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N22" s="3">
-        <v>2780.5368736145429</v>
-      </c>
-      <c r="O22" s="3">
-        <v>20491.546039308389</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2721.3480034090908</v>
-      </c>
-      <c r="T22" s="3">
-        <v>23269.06675490909</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0.91614993147766244</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0.36448270636078473</v>
-      </c>
-      <c r="AB22" s="2">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0.91044190636464306</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0.35476590368169381</v>
-      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
     </row>
     <row r="23" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -1711,42 +1251,17 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N23" s="3">
-        <v>2821.8172215142959</v>
-      </c>
-      <c r="O23" s="3">
-        <v>19224.933889767111</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2744.4802372727281</v>
-      </c>
-      <c r="T23" s="3">
-        <v>21542.566497545449</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0.91660197251146858</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0.34946088781980522</v>
-      </c>
-      <c r="AB23" s="2">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0.91406183040897027</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0.3873310974642783</v>
-      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
     </row>
     <row r="24" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -1773,42 +1288,17 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N24" s="3">
-        <v>2792.527663113307</v>
-      </c>
-      <c r="O24" s="3">
-        <v>19671.007090119969</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2920.2274446818178</v>
-      </c>
-      <c r="T24" s="3">
-        <v>18330.88812209091</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0.91687719446491578</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0.37750395540604997</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0.91034721542999764</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0.3208017080563319</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -1835,42 +1325,17 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N25" s="3">
-        <v>2750.3280275502989</v>
-      </c>
-      <c r="O25" s="3">
-        <v>21150.61716125617</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="S25" s="3">
-        <v>2696.1658483409092</v>
-      </c>
-      <c r="T25" s="3">
-        <v>22827.127369090911</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0.91641791507233139</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0.42766004674476388</v>
-      </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0.91158730883461081</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>0.37908976977632758</v>
-      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -1897,42 +1362,17 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N26" s="3">
-        <v>2820.766670455348</v>
-      </c>
-      <c r="O26" s="3">
-        <v>19159.103209809451</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2855.935536704545</v>
-      </c>
-      <c r="T26" s="3">
-        <v>19638.762176</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0.9158221835632615</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0.3829665901286301</v>
-      </c>
-      <c r="AB26" s="2">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0.91308906167123649</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0.35824994174572472</v>
-      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1959,42 +1399,17 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N27" s="3">
-        <v>2754.368138828097</v>
-      </c>
-      <c r="O27" s="3">
-        <v>21711.035464996461</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2785.6917968409089</v>
-      </c>
-      <c r="T27" s="3">
-        <v>22393.746108090909</v>
-      </c>
-      <c r="W27" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0.91383980593886383</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0.39786585131311908</v>
-      </c>
-      <c r="AB27" s="2">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0.91036267756838585</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0.34693085845024818</v>
-      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
     </row>
     <row r="28" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -2021,42 +1436,17 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N28" s="3">
-        <v>2873.1460086657248</v>
-      </c>
-      <c r="O28" s="3">
-        <v>17306.61393401552</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="S28" s="3">
-        <v>2899.464716545453</v>
-      </c>
-      <c r="T28" s="3">
-        <v>17829.180133818179</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0.9150924078737559</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.39894562619419249</v>
-      </c>
-      <c r="AB28" s="2">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0.90934280741105733</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>0.43399170885135818</v>
-      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -2083,42 +1473,17 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N29" s="3">
-        <v>2824.3451669784681</v>
-      </c>
-      <c r="O29" s="3">
-        <v>20199.784343330979</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="S29" s="3">
-        <v>2778.24736325</v>
-      </c>
-      <c r="T29" s="3">
-        <v>18731.592356363632</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0.91351261427058617</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.42979403127747873</v>
-      </c>
-      <c r="AB29" s="2">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0.90808739249056647</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>0.40714137180518428</v>
-      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
     </row>
     <row r="30" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -2145,42 +1510,17 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N30" s="3">
-        <v>2789.825158471584</v>
-      </c>
-      <c r="O30" s="3">
-        <v>19787.075055116438</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="S30" s="3">
-        <v>2738.957483818182</v>
-      </c>
-      <c r="T30" s="3">
-        <v>19639.517946999989</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0.91461155388097093</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0.35423143814587299</v>
-      </c>
-      <c r="AB30" s="2">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0.90795989804363297</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>0.37151850578025131</v>
-      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -2207,42 +1547,17 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N31" s="3">
-        <v>2867.0018399929399</v>
-      </c>
-      <c r="O31" s="3">
-        <v>20056.680597106559</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="S31" s="3">
-        <v>2828.1391997045448</v>
-      </c>
-      <c r="T31" s="3">
-        <v>18384.754042727269</v>
-      </c>
-      <c r="W31" s="2">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="X31" s="3">
-        <v>0.91544198136758992</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0.39638576093478339</v>
-      </c>
-      <c r="AB31" s="2">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>0.91176172459314075</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>0.40672577650177721</v>
-      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
     </row>
     <row r="32" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -2269,42 +1584,17 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N32" s="3">
-        <v>2711.4776998058592</v>
-      </c>
-      <c r="O32" s="3">
-        <v>22264.449517572339</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2783.0582815454541</v>
-      </c>
-      <c r="T32" s="3">
-        <v>18637.323301</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0.91437476269748863</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0.36851118182246911</v>
-      </c>
-      <c r="AB32" s="2">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0.90823528952940469</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>0.41756960156652079</v>
-      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
     </row>
     <row r="33" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -2331,42 +1621,17 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N33" s="3">
-        <v>2873.0704037769151</v>
-      </c>
-      <c r="O33" s="3">
-        <v>21618.62082124205</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2798.5024943409089</v>
-      </c>
-      <c r="T33" s="3">
-        <v>21204.743474545448</v>
-      </c>
-      <c r="W33" s="2">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0.91120283776065036</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.41135420330047567</v>
-      </c>
-      <c r="AB33" s="2">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0.91482446469544032</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>0.38843091085729492</v>
-      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -2393,42 +1658,17 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N34" s="3">
-        <v>2833.5092312213192</v>
-      </c>
-      <c r="O34" s="3">
-        <v>19787.527856527871</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="S34" s="3">
-        <v>2873.0716337727272</v>
-      </c>
-      <c r="T34" s="3">
-        <v>20010.997476</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="X34" s="3">
-        <v>0.91642707372481824</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0.35808043306993081</v>
-      </c>
-      <c r="AB34" s="2">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>0.90999257370175379</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>0.36754499116941308</v>
-      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
     </row>
     <row r="35" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -2455,42 +1695,17 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N35" s="3">
-        <v>2864.8833353159189</v>
-      </c>
-      <c r="O35" s="3">
-        <v>18899.816603952011</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2900.2750888863638</v>
-      </c>
-      <c r="T35" s="3">
-        <v>19380.42285036363</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0.91513324745205105</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0.38350263819600139</v>
-      </c>
-      <c r="AB35" s="2">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0.91318260928813422</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>0.35933712743070989</v>
-      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -2517,42 +1732,17 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N36" s="3">
-        <v>2810.5110886163079</v>
-      </c>
-      <c r="O36" s="3">
-        <v>20729.902100352851</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="S36" s="3">
-        <v>2852.8841954318191</v>
-      </c>
-      <c r="T36" s="3">
-        <v>18516.84681618182</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="X36" s="3">
-        <v>0.91025368796991857</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0.4284228723465936</v>
-      </c>
-      <c r="AB36" s="2">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>0.91061214277169622</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>0.38527046350906119</v>
-      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -2579,42 +1769,17 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N37" s="3">
-        <v>2805.5176454994698</v>
-      </c>
-      <c r="O37" s="3">
-        <v>19958.903146506698</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="S37" s="3">
-        <v>2770.5342150454539</v>
-      </c>
-      <c r="T37" s="3">
-        <v>20449.70944345454</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0.91471239086309208</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0.40130147180435211</v>
-      </c>
-      <c r="AB37" s="2">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>0.91326502743242977</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>0.27968968455870918</v>
-      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
     </row>
     <row r="38" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -2641,42 +1806,17 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N38" s="3">
-        <v>2887.795210589481</v>
-      </c>
-      <c r="O38" s="3">
-        <v>19980.675961326739</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="S38" s="3">
-        <v>2744.1103640909091</v>
-      </c>
-      <c r="T38" s="3">
-        <v>21041.893743181819</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="X38" s="3">
-        <v>0.91224354462973722</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0.44612813688276542</v>
-      </c>
-      <c r="AB38" s="2">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>0.90971828002517097</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>0.39625622902220142</v>
-      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -2703,42 +1843,17 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N39" s="3">
-        <v>2713.6557843981641</v>
-      </c>
-      <c r="O39" s="3">
-        <v>21819.75615490472</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="S39" s="3">
-        <v>2867.0354986363632</v>
-      </c>
-      <c r="T39" s="3">
-        <v>18647.03928627272</v>
-      </c>
-      <c r="W39" s="2">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="X39" s="3">
-        <v>0.91622603765873656</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>0.39525011199822652</v>
-      </c>
-      <c r="AB39" s="2">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>0.91153684171572258</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>0.40996631526493921</v>
-      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -2765,42 +1880,17 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N40" s="3">
-        <v>2719.38778203318</v>
-      </c>
-      <c r="O40" s="3">
-        <v>21023.12183514467</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="S40" s="3">
-        <v>2779.4441988863641</v>
-      </c>
-      <c r="T40" s="3">
-        <v>18939.73535409091</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0.91389577188280358</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0.44196498897783959</v>
-      </c>
-      <c r="AB40" s="2">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>0.91197946254311546</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>0.36135968844271887</v>
-      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
     </row>
     <row r="41" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -2827,42 +1917,17 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N41" s="3">
-        <v>2767.2701892163782</v>
-      </c>
-      <c r="O41" s="3">
-        <v>22509.212580239939</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2745.2847175000002</v>
-      </c>
-      <c r="T41" s="3">
-        <v>21106.589515727272</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0.91397863806454671</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0.37669885304542428</v>
-      </c>
-      <c r="AB41" s="2">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0.9106186605979133</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>0.4101975092311595</v>
-      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -2889,42 +1954,17 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N42" s="3">
-        <v>2737.7013530003528</v>
-      </c>
-      <c r="O42" s="3">
-        <v>19607.80684918843</v>
-      </c>
-      <c r="R42" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="S42" s="3">
-        <v>2785.1399833863629</v>
-      </c>
-      <c r="T42" s="3">
-        <v>20051.223103818171</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0.91479329835061973</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0.37899740045328578</v>
-      </c>
-      <c r="AB42" s="2">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>0.91287897072786572</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>0.37363956414253041</v>
-      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -2951,42 +1991,17 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N43" s="3">
-        <v>2889.5785846452509</v>
-      </c>
-      <c r="O43" s="3">
-        <v>18671.32249350741</v>
-      </c>
-      <c r="R43" s="2">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2721.3551352045451</v>
-      </c>
-      <c r="T43" s="3">
-        <v>23234.030706363628</v>
-      </c>
-      <c r="W43" s="2">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0.91454060063642195</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0.39015466902732732</v>
-      </c>
-      <c r="AB43" s="2">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0.91004944099005003</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>0.36031826422647939</v>
-      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -3013,42 +2028,17 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N44" s="3">
-        <v>2795.9868608718671</v>
-      </c>
-      <c r="O44" s="3">
-        <v>20251.260690684539</v>
-      </c>
-      <c r="R44" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2880.6295086363639</v>
-      </c>
-      <c r="T44" s="3">
-        <v>17293.145449636359</v>
-      </c>
-      <c r="W44" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0.91480631405751345</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0.39461075931423439</v>
-      </c>
-      <c r="AB44" s="2">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0.9134777543626007</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>0.36579279890933458</v>
-      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -3075,42 +2065,17 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N45" s="3">
-        <v>2910.6667080656539</v>
-      </c>
-      <c r="O45" s="3">
-        <v>19337.63597297106</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2846.8202731136362</v>
-      </c>
-      <c r="T45" s="3">
-        <v>19151.196095454539</v>
-      </c>
-      <c r="W45" s="2">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0.91387707270442442</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0.41518115925110088</v>
-      </c>
-      <c r="AB45" s="2">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0.9112062000789718</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0.39937289312887381</v>
-      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
     </row>
     <row r="46" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -3137,42 +2102,17 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N46" s="3">
-        <v>2884.1398105718322</v>
-      </c>
-      <c r="O46" s="3">
-        <v>18350.597515666901</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="S46" s="3">
-        <v>2778.840435204545</v>
-      </c>
-      <c r="T46" s="3">
-        <v>18081.365997272718</v>
-      </c>
-      <c r="W46" s="2">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0.91312874049649806</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0.40626331869509258</v>
-      </c>
-      <c r="AB46" s="2">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>0.9125330474475366</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>0.37003915099668327</v>
-      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
     </row>
     <row r="47" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -3199,42 +2139,17 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N47" s="3">
-        <v>2867.165576473702</v>
-      </c>
-      <c r="O47" s="3">
-        <v>19136.907747847559</v>
-      </c>
-      <c r="R47" s="2">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2672.9546187045448</v>
-      </c>
-      <c r="T47" s="3">
-        <v>23746.294160363632</v>
-      </c>
-      <c r="W47" s="2">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0.91380819739250074</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0.38088042315041371</v>
-      </c>
-      <c r="AB47" s="2">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>0.9137208131034158</v>
-      </c>
-      <c r="AD47" s="3">
-        <v>0.35753023069049661</v>
-      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -3261,42 +2176,17 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N48" s="3">
-        <v>2950.4008484292272</v>
-      </c>
-      <c r="O48" s="3">
-        <v>18378.243652293571</v>
-      </c>
-      <c r="R48" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2843.86794525</v>
-      </c>
-      <c r="T48" s="3">
-        <v>20392.96970436363</v>
-      </c>
-      <c r="W48" s="2">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0.91192658781867442</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0.41115672169560058</v>
-      </c>
-      <c r="AB48" s="2">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>0.91331983866405464</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>0.32021602198157367</v>
-      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
     </row>
     <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -3323,42 +2213,17 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N49" s="3">
-        <v>2846.5626503000349</v>
-      </c>
-      <c r="O49" s="3">
-        <v>20720.522374594209</v>
-      </c>
-      <c r="R49" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2759.6820140227269</v>
-      </c>
-      <c r="T49" s="3">
-        <v>22381.90146736363</v>
-      </c>
-      <c r="W49" s="2">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0.91547062276159674</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0.39273984543491641</v>
-      </c>
-      <c r="AB49" s="2">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>0.91184654390388364</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>0.37133143410715708</v>
-      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
     </row>
     <row r="50" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -3385,42 +2250,17 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N50" s="3">
-        <v>2898.614598340982</v>
-      </c>
-      <c r="O50" s="3">
-        <v>18299.291081580799</v>
-      </c>
-      <c r="R50" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="S50" s="3">
-        <v>2878.817411977273</v>
-      </c>
-      <c r="T50" s="3">
-        <v>18497.424357272721</v>
-      </c>
-      <c r="W50" s="2">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="X50" s="3">
-        <v>0.91396028491350745</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>0.39451856910580979</v>
-      </c>
-      <c r="AB50" s="2">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="AC50" s="3">
-        <v>0.91012718307000107</v>
-      </c>
-      <c r="AD50" s="3">
-        <v>0.37317872638308719</v>
-      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
     </row>
     <row r="51" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -3447,42 +2287,17 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N51" s="3">
-        <v>2864.430822626191</v>
-      </c>
-      <c r="O51" s="3">
-        <v>20114.801148200419</v>
-      </c>
-      <c r="R51" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="S51" s="3">
-        <v>2811.0828713636361</v>
-      </c>
-      <c r="T51" s="3">
-        <v>19636.859455545451</v>
-      </c>
-      <c r="W51" s="2">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="X51" s="3">
-        <v>0.91407568963509922</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>0.41128920442367878</v>
-      </c>
-      <c r="AB51" s="2">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>0.91473064071072496</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>0.32576476341149679</v>
-      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
     </row>
     <row r="52" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -3509,42 +2324,17 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N52" s="3">
-        <v>2815.6321298270382</v>
-      </c>
-      <c r="O52" s="3">
-        <v>19085.770111291458</v>
-      </c>
-      <c r="R52" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2748.4959075909078</v>
-      </c>
-      <c r="T52" s="3">
-        <v>20067.022936909081</v>
-      </c>
-      <c r="W52" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0.91720723119884606</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0.3978722984193247</v>
-      </c>
-      <c r="AB52" s="2">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>0.90978851623138757</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>0.44630727267738479</v>
-      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
     </row>
     <row r="53" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -3571,42 +2361,17 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N53" s="3">
-        <v>2932.0089432050831</v>
-      </c>
-      <c r="O53" s="3">
-        <v>17469.35093436838</v>
-      </c>
-      <c r="R53" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="S53" s="3">
-        <v>2843.9603828636359</v>
-      </c>
-      <c r="T53" s="3">
-        <v>18636.77519827272</v>
-      </c>
-      <c r="W53" s="2">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="X53" s="3">
-        <v>0.91539179849624819</v>
-      </c>
-      <c r="Y53" s="3">
-        <v>0.41805219370924179</v>
-      </c>
-      <c r="AB53" s="2">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="AC53" s="3">
-        <v>0.90926430292900984</v>
-      </c>
-      <c r="AD53" s="3">
-        <v>0.40700674546301469</v>
-      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
     </row>
     <row r="54" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -3633,42 +2398,17 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N54" s="3">
-        <v>2904.813584398164</v>
-      </c>
-      <c r="O54" s="3">
-        <v>17675.786555610441</v>
-      </c>
-      <c r="R54" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2669.8149414090908</v>
-      </c>
-      <c r="T54" s="3">
-        <v>23534.894932818181</v>
-      </c>
-      <c r="W54" s="2">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0.91427559461495422</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0.38935302134494032</v>
-      </c>
-      <c r="AB54" s="2">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>0.91258307218431822</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>0.3868213792977796</v>
-      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
     </row>
     <row r="56" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
@@ -3696,47 +2436,23 @@
       <c r="M56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="3" t="e">
         <f>AVERAGE(N5:N54)</f>
-        <v>2833.6719744977054</v>
-      </c>
-      <c r="O56" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="3" t="e">
         <f>AVERAGE(O5:O54)</f>
-        <v>19796.516052791809</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S56" s="3">
-        <f>AVERAGE(S5:S54)</f>
-        <v>2800.1611691372741</v>
-      </c>
-      <c r="T56" s="3">
-        <f>AVERAGE(T5:T54)</f>
-        <v>20155.516589738178</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X56" s="3">
-        <f>AVERAGE(X5:X54)</f>
-        <v>0.91463811942147899</v>
-      </c>
-      <c r="Y56" s="3">
-        <f>AVERAGE(Y5:Y54)</f>
-        <v>0.39578134698910605</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="3">
-        <f>AVERAGE(AC5:AC54)</f>
-        <v>0.91161650949531881</v>
-      </c>
-      <c r="AD56" s="3">
-        <f>AVERAGE(AD5:AD54)</f>
-        <v>0.37499016087914322</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
@@ -3764,47 +2480,23 @@
       <c r="M57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="e">
         <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>65.068280873588719</v>
-      </c>
-      <c r="O57" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="3" t="e">
         <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>1250.96338720674</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3">
-        <f>_xlfn.STDEV.S(S5:S54)</f>
-        <v>68.266078013454219</v>
-      </c>
-      <c r="T57" s="3">
-        <f>_xlfn.STDEV.S(T5:T54)</f>
-        <v>1919.7437021329295</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3">
-        <f>_xlfn.STDEV.S(X5:X54)</f>
-        <v>1.7512715726983956E-3</v>
-      </c>
-      <c r="Y57" s="3">
-        <f>_xlfn.STDEV.S(Y5:Y54)</f>
-        <v>2.232824238662065E-2</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC57" s="3">
-        <f>_xlfn.STDEV.S(AC5:AC54)</f>
-        <v>2.0499508463418304E-3</v>
-      </c>
-      <c r="AD57" s="3">
-        <f>_xlfn.STDEV.S(AD5:AD54)</f>
-        <v>3.3083329176637234E-2</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3813,6 +2505,2388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2885.140409918813</v>
+      </c>
+      <c r="E6" s="3">
+        <v>19716.934715172902</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2788.3829854999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19310.36000581818</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2917.400675767738</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18553.49103683839</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H6+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2790.81623425</v>
+      </c>
+      <c r="J7" s="3">
+        <v>21644.502813545449</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2942.5704854041651</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18662.16895772759</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H55" si="1">H7+1</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2855.804598772726</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19433.344400999991</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2791.2388276738429</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20745.58181721947</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2838.6101218181821</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21149.853778090899</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2883.4160241793152</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18213.051568313331</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2827.6495906136361</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17065.156151090909</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2849.341758436286</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20890.997923712061</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2832.0613510227272</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18811.352593636359</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2893.916529597599</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18006.12510853916</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2745.1947959090899</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20118.164264090901</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2871.0047176138369</v>
+      </c>
+      <c r="E13" s="3">
+        <v>19187.008482709949</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2809.1363215909091</v>
+      </c>
+      <c r="J13" s="3">
+        <v>20924.492259272731</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2876.5212187433808</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20000.70413528581</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2910.93786159091</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18178.352027909081</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2688.3978799682309</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20661.954152011291</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2867.806979090909</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18063.04353881818</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2721.5533336392518</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21834.885481227939</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2894.85082375</v>
+      </c>
+      <c r="J16" s="3">
+        <v>17960.769985090908</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2857.1864841863739</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20066.616100141138</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2828.5429050909088</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20119.651404363631</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2817.5808289092829</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20115.171759985878</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2733.164880340908</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21644.570620545452</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2865.9792240381221</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19621.118954340149</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2705.9289659545452</v>
+      </c>
+      <c r="J19" s="3">
+        <v>23864.512096454539</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2783.3344844158132</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20577.722999788279</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2655.7523583181819</v>
+      </c>
+      <c r="J20" s="3">
+        <v>24958.315509545449</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2802.8407185315918</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18214.89993338038</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2723.3946965227269</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20962.44124872726</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2876.7315134486398</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20307.689022794639</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2875.7032392954552</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18339.34045499999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2780.5368736145429</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20491.546039308389</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2721.3480034090908</v>
+      </c>
+      <c r="J23" s="3">
+        <v>23269.06675490909</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2821.8172215142959</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19224.933889767111</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2744.4802372727281</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21542.566497545449</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2792.527663113307</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19671.007090119969</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2920.2274446818178</v>
+      </c>
+      <c r="J25" s="3">
+        <v>18330.88812209091</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2750.3280275502989</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21150.61716125617</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2696.1658483409092</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22827.127369090911</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2820.766670455348</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19159.103209809451</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2855.935536704545</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19638.762176</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2754.368138828097</v>
+      </c>
+      <c r="E28" s="3">
+        <v>21711.035464996461</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2785.6917968409089</v>
+      </c>
+      <c r="J28" s="3">
+        <v>22393.746108090909</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2873.1460086657248</v>
+      </c>
+      <c r="E29" s="3">
+        <v>17306.61393401552</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2899.464716545453</v>
+      </c>
+      <c r="J29" s="3">
+        <v>17829.180133818179</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2824.3451669784681</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20199.784343330979</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2778.24736325</v>
+      </c>
+      <c r="J30" s="3">
+        <v>18731.592356363632</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2789.825158471584</v>
+      </c>
+      <c r="E31" s="3">
+        <v>19787.075055116438</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2738.957483818182</v>
+      </c>
+      <c r="J31" s="3">
+        <v>19639.517946999989</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2867.0018399929399</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20056.680597106559</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2828.1391997045448</v>
+      </c>
+      <c r="J32" s="3">
+        <v>18384.754042727269</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2711.4776998058592</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22264.449517572339</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2783.0582815454541</v>
+      </c>
+      <c r="J33" s="3">
+        <v>18637.323301</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2873.0704037769151</v>
+      </c>
+      <c r="E34" s="3">
+        <v>21618.62082124205</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2798.5024943409089</v>
+      </c>
+      <c r="J34" s="3">
+        <v>21204.743474545448</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2833.5092312213192</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19787.527856527871</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2873.0716337727272</v>
+      </c>
+      <c r="J35" s="3">
+        <v>20010.997476</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2864.8833353159189</v>
+      </c>
+      <c r="E36" s="3">
+        <v>18899.816603952011</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2900.2750888863638</v>
+      </c>
+      <c r="J36" s="3">
+        <v>19380.42285036363</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2810.5110886163079</v>
+      </c>
+      <c r="E37" s="3">
+        <v>20729.902100352851</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2852.8841954318191</v>
+      </c>
+      <c r="J37" s="3">
+        <v>18516.84681618182</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2805.5176454994698</v>
+      </c>
+      <c r="E38" s="3">
+        <v>19958.903146506698</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2770.5342150454539</v>
+      </c>
+      <c r="J38" s="3">
+        <v>20449.70944345454</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2887.795210589481</v>
+      </c>
+      <c r="E39" s="3">
+        <v>19980.675961326739</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2744.1103640909091</v>
+      </c>
+      <c r="J39" s="3">
+        <v>21041.893743181819</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2713.6557843981641</v>
+      </c>
+      <c r="E40" s="3">
+        <v>21819.75615490472</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2867.0354986363632</v>
+      </c>
+      <c r="J40" s="3">
+        <v>18647.03928627272</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2719.38778203318</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21023.12183514467</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2779.4441988863641</v>
+      </c>
+      <c r="J41" s="3">
+        <v>18939.73535409091</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2767.2701892163782</v>
+      </c>
+      <c r="E42" s="3">
+        <v>22509.212580239939</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2745.2847175000002</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21106.589515727272</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2737.7013530003528</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19607.80684918843</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2785.1399833863629</v>
+      </c>
+      <c r="J43" s="3">
+        <v>20051.223103818171</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2889.5785846452509</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18671.32249350741</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2721.3551352045451</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23234.030706363628</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2795.9868608718671</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20251.260690684539</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2880.6295086363639</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17293.145449636359</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2910.6667080656539</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19337.63597297106</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2846.8202731136362</v>
+      </c>
+      <c r="J46" s="3">
+        <v>19151.196095454539</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2884.1398105718322</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18350.597515666901</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2778.840435204545</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18081.365997272718</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2867.165576473702</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19136.907747847559</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2672.9546187045448</v>
+      </c>
+      <c r="J48" s="3">
+        <v>23746.294160363632</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2950.4008484292272</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18378.243652293571</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2843.86794525</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20392.96970436363</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2846.5626503000349</v>
+      </c>
+      <c r="E50" s="3">
+        <v>20720.522374594209</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2759.6820140227269</v>
+      </c>
+      <c r="J50" s="3">
+        <v>22381.90146736363</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2898.614598340982</v>
+      </c>
+      <c r="E51" s="3">
+        <v>18299.291081580799</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2878.817411977273</v>
+      </c>
+      <c r="J51" s="3">
+        <v>18497.424357272721</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2864.430822626191</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20114.801148200419</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2811.0828713636361</v>
+      </c>
+      <c r="J52" s="3">
+        <v>19636.859455545451</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2815.6321298270382</v>
+      </c>
+      <c r="E53" s="3">
+        <v>19085.770111291458</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2748.4959075909078</v>
+      </c>
+      <c r="J53" s="3">
+        <v>20067.022936909081</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2932.0089432050831</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17469.35093436838</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2843.9603828636359</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18636.77519827272</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2904.813584398164</v>
+      </c>
+      <c r="E55" s="3">
+        <v>17675.786555610441</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2669.8149414090908</v>
+      </c>
+      <c r="J55" s="3">
+        <v>23534.894932818181</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>2833.6719744977054</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>19796.516052791809</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3">
+        <f>AVERAGE(I6:I55)</f>
+        <v>2800.1611691372741</v>
+      </c>
+      <c r="J57" s="3">
+        <f>AVERAGE(J6:J55)</f>
+        <v>20155.516589738178</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>65.068280873588719</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>1250.96338720674</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <f>_xlfn.STDEV.S(I6:I55)</f>
+        <v>68.266078013454219</v>
+      </c>
+      <c r="J58" s="3">
+        <f>_xlfn.STDEV.S(J6:J55)</f>
+        <v>1919.7437021329295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:J59"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.91685320978340012</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.37057366514701851</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.90825260931177343</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.41015617807278831</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f>C7+1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.91492698184312449</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.40239116665089292</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H7+1</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.9126849074256651</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.32321272321548311</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C56" si="0">C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.9106540113230992</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.42175716619077852</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:H56" si="1">H8+1</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.91095261549529316</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.38546507998697821</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.91213196672260932</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.40594232375289641</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.91018416204918406</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.41577139520704159</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.91353090376933421</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.42106433687033551</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.9095211870832578</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.40716308188498118</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.9156500350838519</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.41852666741979788</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.91372085481715626</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.37194676611159122</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.91659692964835804</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.36669531676453732</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.91087128150368357</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.39580000305454188</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.91427428929436594</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.41215024198354389</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.90717338711137618</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.41467184181656619</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.91517095254500458</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.389883486107508</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.91216070734316945</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.33510426955356359</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.91575717754649388</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.38321887453278047</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.914689935357477</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.31817133091947569</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.91549181563959903</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.39378973126585298</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.91357165498643633</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.37195363422800759</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.91421275791182255</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.40144916744777898</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.91265774619421247</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.37031821941627019</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.91562378579620851</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.38850047148523231</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.91144195210259027</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.36645052767912362</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.91696227567784339</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.39800392186676559</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.91437809738098341</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.35750366213192403</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.91677123692571116</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.38688868986652591</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.91401533871239693</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.37703458786180311</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.91672739945557624</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.35140245925639041</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.91569852216512504</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.33443651139322339</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.91049265590539374</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.40524829305213261</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.91231701620529937</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.39485982284200549</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.91614993147766244</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.36448270636078473</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.91044190636464306</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.35476590368169381</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.91660197251146858</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.34946088781980522</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.91406183040897027</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.3873310974642783</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.91687719446491578</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.37750395540604997</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.91034721542999764</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.3208017080563319</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.91641791507233139</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.42766004674476388</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.91158730883461081</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.37908976977632758</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.9158221835632615</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.3829665901286301</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.91308906167123649</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.35824994174572472</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.91383980593886383</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.39786585131311908</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.91036267756838585</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.34693085845024818</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.9150924078737559</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.39894562619419249</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.90934280741105733</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.43399170885135818</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.91351261427058617</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.42979403127747873</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.90808739249056647</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.40714137180518428</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.91461155388097093</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.35423143814587299</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.90795989804363297</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.37151850578025131</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.91544198136758992</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.39638576093478339</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.91176172459314075</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.40672577650177721</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.91437476269748863</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.36851118182246911</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.90823528952940469</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.41756960156652079</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.91120283776065036</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.41135420330047567</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.91482446469544032</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.38843091085729492</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.91642707372481824</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.35808043306993081</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.90999257370175379</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.36754499116941308</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.91513324745205105</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.38350263819600139</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.91318260928813422</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.35933712743070989</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.91025368796991857</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.4284228723465936</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.91061214277169622</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.38527046350906119</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.91471239086309208</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.40130147180435211</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.91326502743242977</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.27968968455870918</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.91224354462973722</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.44612813688276542</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.90971828002517097</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.39625622902220142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.91622603765873656</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.39525011199822652</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.91153684171572258</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.40996631526493921</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.91389577188280358</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.44196498897783959</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.91197946254311546</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.36135968844271887</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.91397863806454671</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.37669885304542428</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.9106186605979133</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.4101975092311595</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.91479329835061973</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.37899740045328578</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.91287897072786572</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.37363956414253041</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.91454060063642195</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.39015466902732732</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.91004944099005003</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.36031826422647939</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.91480631405751345</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.39461075931423439</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.9134777543626007</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.36579279890933458</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.91387707270442442</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.41518115925110088</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.9112062000789718</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.39937289312887381</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.91312874049649806</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.40626331869509258</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.9125330474475366</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.37003915099668327</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.91380819739250074</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.38088042315041371</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.9137208131034158</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.35753023069049661</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.91192658781867442</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.41115672169560058</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.91331983866405464</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.32021602198157367</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.91547062276159674</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.39273984543491641</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.91184654390388364</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.37133143410715708</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.91396028491350745</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.39451856910580979</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.91012718307000107</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.37317872638308719</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.91407568963509922</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.41128920442367878</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.91473064071072496</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.32576476341149679</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.91720723119884606</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.3978722984193247</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.90978851623138757</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.44630727267738479</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.91539179849624819</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.41805219370924179</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.90926430292900984</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.40700674546301469</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.91427559461495422</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.38935302134494032</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.91258307218431822</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.3868213792977796</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <f>AVERAGE(D7:D56)</f>
+        <v>0.91463811942147899</v>
+      </c>
+      <c r="E58" s="3">
+        <f>AVERAGE(E7:E56)</f>
+        <v>0.39578134698910605</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3">
+        <f>AVERAGE(I7:I56)</f>
+        <v>0.91161650949531881</v>
+      </c>
+      <c r="J58" s="3">
+        <f>AVERAGE(J7:J56)</f>
+        <v>0.37499016087914322</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <f>_xlfn.STDEV.S(D7:D56)</f>
+        <v>1.7512715726983956E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <f>_xlfn.STDEV.S(E7:E56)</f>
+        <v>2.232824238662065E-2</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
+        <f>_xlfn.STDEV.S(I7:I56)</f>
+        <v>2.0499508463418304E-3</v>
+      </c>
+      <c r="J59" s="3">
+        <f>_xlfn.STDEV.S(J7:J56)</f>
+        <v>3.3083329176637234E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F41"/>
   <sheetViews>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>Random Forest-100 (superdataset-24-f 3Y.csv)</t>
   </si>
+  <si>
+    <t>dataset 24-f 3Y</t>
+  </si>
 </sst>
 </file>
 
@@ -166,12 +169,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,6 +217,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +508,7 @@
   <dimension ref="C3:AD57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,8 +600,12 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3">
+        <v>35.832255139056826</v>
+      </c>
+      <c r="O5" s="3">
+        <v>98.318391777509063</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -622,8 +641,12 @@
         <f>M5+1</f>
         <v>2</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3">
+        <v>36.133600362756951</v>
+      </c>
+      <c r="O6" s="3">
+        <v>100.3363482466747</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -659,8 +682,12 @@
         <f t="shared" ref="M7:M54" si="2">M6+1</f>
         <v>3</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>36.419489117291413</v>
+      </c>
+      <c r="O7" s="3">
+        <v>99.131112454655366</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -696,8 +723,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3">
+        <v>36.462391172914138</v>
+      </c>
+      <c r="O8" s="3">
+        <v>96.707061668681973</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -733,8 +764,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3">
+        <v>36.285689238210388</v>
+      </c>
+      <c r="O9" s="3">
+        <v>95.482938331317996</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -770,8 +805,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <v>36.41876360338572</v>
+      </c>
+      <c r="O10" s="3">
+        <v>97.002503022974594</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -807,8 +846,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>35.953207376058032</v>
+      </c>
+      <c r="O11" s="3">
+        <v>97.838621523579192</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -844,8 +887,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3">
+        <v>35.799238210399032</v>
+      </c>
+      <c r="O12" s="3">
+        <v>101.16273276904469</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -881,8 +928,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3">
+        <v>35.573612454655382</v>
+      </c>
+      <c r="O13" s="3">
+        <v>103.77903264812571</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -918,8 +969,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3">
+        <v>36.124368198307131</v>
+      </c>
+      <c r="O14" s="3">
+        <v>98.979613059250283</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -955,8 +1010,12 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3">
+        <v>35.522212817412317</v>
+      </c>
+      <c r="O15" s="3">
+        <v>103.0914631197098</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -992,8 +1051,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3">
+        <v>36.307246070132997</v>
+      </c>
+      <c r="O16" s="3">
+        <v>95.663470374848842</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1029,8 +1092,12 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3">
+        <v>35.824803506650539</v>
+      </c>
+      <c r="O17" s="3">
+        <v>98.451330108827079</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1066,8 +1133,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3">
+        <v>35.884990931076167</v>
+      </c>
+      <c r="O18" s="3">
+        <v>101.5836517533253</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1103,8 +1174,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3">
+        <v>36.351357315598541</v>
+      </c>
+      <c r="O19" s="3">
+        <v>95.264873035066486</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1140,8 +1215,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3">
+        <v>36.645169286577989</v>
+      </c>
+      <c r="O20" s="3">
+        <v>94.841233373639639</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1177,8 +1256,12 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3">
+        <v>36.350925030229739</v>
+      </c>
+      <c r="O21" s="3">
+        <v>94.213482466747266</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -1214,8 +1297,12 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3">
+        <v>35.912605804111237</v>
+      </c>
+      <c r="O22" s="3">
+        <v>103.2512938331318</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -1251,8 +1338,12 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3">
+        <v>36.045205562273267</v>
+      </c>
+      <c r="O23" s="3">
+        <v>99.938948004836746</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -1288,8 +1379,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3">
+        <v>36.00307134220072</v>
+      </c>
+      <c r="O24" s="3">
+        <v>97.08368802902055</v>
+      </c>
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -1325,8 +1420,12 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3">
+        <v>36.257708585247883</v>
+      </c>
+      <c r="O25" s="3">
+        <v>94.129359129383289</v>
+      </c>
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -1362,8 +1461,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3">
+        <v>34.841505441354293</v>
+      </c>
+      <c r="O26" s="3">
+        <v>105.2663119709794</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -1399,8 +1502,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3">
+        <v>36.060840386940747</v>
+      </c>
+      <c r="O27" s="3">
+        <v>95.697799274486101</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -1436,8 +1543,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3">
+        <v>36.275338573155977</v>
+      </c>
+      <c r="O28" s="3">
+        <v>93.815247883917763</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -1473,8 +1584,12 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3">
+        <v>36.032877871825868</v>
+      </c>
+      <c r="O29" s="3">
+        <v>97.155090689238207</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -1510,8 +1625,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3">
+        <v>36.289356106408697</v>
+      </c>
+      <c r="O30" s="3">
+        <v>96.109443772672279</v>
+      </c>
       <c r="R30" s="2"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -1547,8 +1666,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3">
+        <v>36.535329504232159</v>
+      </c>
+      <c r="O31" s="3">
+        <v>93.001039903264797</v>
+      </c>
       <c r="R31" s="2"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -1584,8 +1707,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3">
+        <v>36.240788996372423</v>
+      </c>
+      <c r="O32" s="3">
+        <v>92.791813784764187</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -1621,8 +1748,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3">
+        <v>36.136405683192258</v>
+      </c>
+      <c r="O33" s="3">
+        <v>101.4413542926239</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -1658,8 +1789,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3">
+        <v>35.768790810157178</v>
+      </c>
+      <c r="O34" s="3">
+        <v>102.3724062877872</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -1695,8 +1830,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3">
+        <v>36.444924425634817</v>
+      </c>
+      <c r="O35" s="3">
+        <v>97.087750906892367</v>
+      </c>
       <c r="R35" s="2"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -1732,8 +1871,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3">
+        <v>35.171417775090681</v>
+      </c>
+      <c r="O36" s="3">
+        <v>104.0911850060459</v>
+      </c>
       <c r="R36" s="2"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -1769,8 +1912,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3">
+        <v>36.224873035066501</v>
+      </c>
+      <c r="O37" s="3">
+        <v>96.778089480048365</v>
+      </c>
       <c r="R37" s="2"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -1806,8 +1953,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3">
+        <v>36.403367593712197</v>
+      </c>
+      <c r="O38" s="3">
+        <v>93.845030229746072</v>
+      </c>
       <c r="R38" s="2"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -1843,8 +1994,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="N39" s="3">
+        <v>36.47707678355502</v>
+      </c>
+      <c r="O39" s="3">
+        <v>92.598500604594918</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -1880,8 +2035,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="N40" s="3">
+        <v>36.005788996372416</v>
+      </c>
+      <c r="O40" s="3">
+        <v>98.257363966142677</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -1917,8 +2076,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="N41" s="3">
+        <v>36.483494558645702</v>
+      </c>
+      <c r="O41" s="3">
+        <v>92.696880290205542</v>
+      </c>
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -1954,8 +2117,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="N42" s="3">
+        <v>35.780399032648113</v>
+      </c>
+      <c r="O42" s="3">
+        <v>98.298561064087053</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -1991,8 +2158,12 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="3">
+        <v>36.080828295042323</v>
+      </c>
+      <c r="O43" s="3">
+        <v>97.107061668681979</v>
+      </c>
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -2028,8 +2199,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="N44" s="3">
+        <v>36.587279322853682</v>
+      </c>
+      <c r="O44" s="3">
+        <v>95.856106408706154</v>
+      </c>
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -2065,8 +2240,12 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="N45" s="3">
+        <v>37.123627569528402</v>
+      </c>
+      <c r="O45" s="3">
+        <v>90.014727932285354</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -2102,8 +2281,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="N46" s="3">
+        <v>36.321717049576783</v>
+      </c>
+      <c r="O46" s="3">
+        <v>98.349987908101554</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -2139,8 +2322,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="N47" s="3">
+        <v>36.328282950423208</v>
+      </c>
+      <c r="O47" s="3">
+        <v>100.666892382104</v>
+      </c>
       <c r="R47" s="2"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -2176,8 +2363,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="N48" s="3">
+        <v>36.503763603385728</v>
+      </c>
+      <c r="O48" s="3">
+        <v>94.738948004836743</v>
+      </c>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -2213,8 +2404,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="N49" s="3">
+        <v>35.867273276904463</v>
+      </c>
+      <c r="O49" s="3">
+        <v>101.0377629987908</v>
+      </c>
       <c r="R49" s="2"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
@@ -2250,8 +2445,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="N50" s="3">
+        <v>36.463666868198302</v>
+      </c>
+      <c r="O50" s="3">
+        <v>91.74227327690447</v>
+      </c>
       <c r="R50" s="2"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -2287,8 +2486,12 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="N51" s="3">
+        <v>35.61554111245465</v>
+      </c>
+      <c r="O51" s="3">
+        <v>101.5007376058041</v>
+      </c>
       <c r="R51" s="2"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -2324,8 +2527,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="N52" s="3">
+        <v>36.99210399032647</v>
+      </c>
+      <c r="O52" s="3">
+        <v>90.444594921402654</v>
+      </c>
       <c r="R52" s="2"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -2361,8 +2568,12 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="N53" s="3">
+        <v>36.7815568319226</v>
+      </c>
+      <c r="O53" s="3">
+        <v>88.84430471584038</v>
+      </c>
       <c r="R53" s="2"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -2398,8 +2609,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="3">
+        <v>35.489141475211603</v>
+      </c>
+      <c r="O54" s="3">
+        <v>101.0458041112455</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -2436,13 +2651,13 @@
       <c r="M56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N56" s="3" t="e">
+      <c r="N56" s="3">
         <f>AVERAGE(N5:N54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="3" t="e">
+        <v>36.14870538089481</v>
+      </c>
+      <c r="O56" s="3">
         <f>AVERAGE(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>97.378084401451034</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="3"/>
@@ -2480,13 +2695,13 @@
       <c r="M57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3" t="e">
+      <c r="N57" s="3">
         <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="3" t="e">
+        <v>0.42326153855137794</v>
+      </c>
+      <c r="O57" s="3">
         <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>#DIV/0!</v>
+        <v>3.8841638495220545</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="3"/>
@@ -4888,22 +5103,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F41"/>
+  <dimension ref="A4:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -4914,8 +5131,11 @@
       <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -4926,8 +5146,11 @@
       <c r="D5" s="3">
         <v>7.5297953219226721E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>6.8592410529050504E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -4938,8 +5161,11 @@
       <c r="D6" s="3">
         <v>5.9346088214304038E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>6.4729465563158492E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -4950,8 +5176,11 @@
       <c r="D7" s="3">
         <v>7.2630088469440773E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>5.554849786251214E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -4962,8 +5191,11 @@
       <c r="D8" s="3">
         <v>4.5103577218663683E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>4.8214501814044103E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -4974,8 +5206,11 @@
       <c r="D9" s="3">
         <v>5.2064050405848467E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>5.5471479480911953E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
@@ -4986,8 +5221,11 @@
       <c r="D10" s="3">
         <v>8.0680765509400773E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>6.9470551186272392E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -4998,8 +5236,11 @@
       <c r="D11" s="3">
         <v>5.987358322891894E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>7.2723914147022312E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -5010,8 +5251,11 @@
       <c r="D12" s="3">
         <v>4.7239375280772683E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>5.2949169808714468E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -5022,8 +5266,11 @@
       <c r="D13" s="3">
         <v>4.7402095060868857E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>4.9608257002437747E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
@@ -5034,8 +5281,11 @@
       <c r="D14" s="3">
         <v>6.9740007649667202E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>7.8744788323132697E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
@@ -5046,8 +5296,11 @@
       <c r="D15" s="3">
         <v>6.8994958644181537E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>6.0733212529234762E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
@@ -5058,8 +5311,11 @@
       <c r="D16" s="3">
         <v>6.9197266835097554E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>7.4404370703625086E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>18</v>
@@ -5070,8 +5326,11 @@
       <c r="D17" s="3">
         <v>5.8909953146660268E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>6.4030302631438787E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>19</v>
@@ -5082,8 +5341,11 @@
       <c r="D18" s="3">
         <v>5.956278142554991E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>5.5722669057626573E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
@@ -5094,8 +5356,11 @@
       <c r="D19" s="3">
         <v>8.3331582773955054E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>7.5390169958474834E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>21</v>
@@ -5106,8 +5371,11 @@
       <c r="D20" s="3">
         <v>5.0625872917443512E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>5.3666239402343198E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -5120,8 +5388,14 @@
       <c r="F25" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5408,14 @@
       <c r="F26" s="3">
         <v>8.3331582773955054E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <v>7.8744788323132697E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
@@ -5148,8 +5428,14 @@
       <c r="F27" s="3">
         <v>8.0680765509400773E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7.5390169958474834E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
@@ -5162,8 +5448,14 @@
       <c r="F28" s="3">
         <v>7.5297953219226721E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7.4404370703625086E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -5176,22 +5468,34 @@
       <c r="F29" s="3">
         <v>7.2630088469440773E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="10">
+        <v>7.2723914147022312E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3">
         <v>7.1388894352929708E-2</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>6.9740007649667202E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="3">
+        <v>6.9470551186272392E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
@@ -5204,8 +5508,14 @@
       <c r="F31" s="3">
         <v>6.9197266835097554E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="3">
+        <v>6.8592410529050504E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
@@ -5218,22 +5528,34 @@
       <c r="F32" s="3">
         <v>6.8994958644181537E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6.4729465563158492E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3">
         <v>6.4470159101659569E-2</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>5.987358322891894E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6.4030302631438787E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
@@ -5246,12 +5568,18 @@
       <c r="F34" s="3">
         <v>5.956278142554991E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="3">
+        <v>6.0733212529234762E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="10">
         <v>6.1051775385052597E-2</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -5260,8 +5588,14 @@
       <c r="F35" s="3">
         <v>5.9346088214304038E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5.5722669057626573E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
@@ -5274,12 +5608,18 @@
       <c r="F36" s="3">
         <v>5.8909953146660268E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5.554849786251214E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="10">
         <v>5.6139722040872107E-2</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -5288,8 +5628,14 @@
       <c r="F37" s="3">
         <v>5.2064050405848467E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5.5471479480911953E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
@@ -5302,8 +5648,14 @@
       <c r="F38" s="3">
         <v>5.0625872917443512E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="3">
+        <v>5.3666239402343198E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
@@ -5316,8 +5668,14 @@
       <c r="F39" s="3">
         <v>4.7402095060868857E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5.2949169808714468E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
@@ -5330,8 +5688,14 @@
       <c r="F40" s="3">
         <v>4.7239375280772683E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4.9608257002437747E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>21</v>
       </c>
@@ -5344,10 +5708,16 @@
       <c r="F41" s="3">
         <v>4.5103577218663683E-2</v>
       </c>
+      <c r="H41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4.8214501814044103E-2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="E26:F41">
-    <sortCondition descending="1" ref="F26:F41"/>
+  <sortState ref="H26:I41">
+    <sortCondition descending="1" ref="I26:I41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -2721,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J58"/>
+  <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,9 +2733,11 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2744,8 +2746,12 @@
         <v>24</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -2760,8 +2766,15 @@
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2780,8 +2793,17 @@
       <c r="J6" s="3">
         <v>19310.36000581818</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2841.2970795646911</v>
+      </c>
+      <c r="O6" s="3">
+        <v>19007.396993470371</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -2802,8 +2824,18 @@
       <c r="J7" s="3">
         <v>21644.502813545449</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2873.9749979746061</v>
+      </c>
+      <c r="O7" s="3">
+        <v>20253.900928053201</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
@@ -2824,8 +2856,18 @@
       <c r="J8" s="3">
         <v>19433.344400999991</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2795.4474168077381</v>
+      </c>
+      <c r="O8" s="3">
+        <v>21160.12243131801</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2846,8 +2888,18 @@
       <c r="J9" s="3">
         <v>21149.853778090899</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2700.8397594619091</v>
+      </c>
+      <c r="O9" s="3">
+        <v>21909.51972587666</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2868,8 +2920,18 @@
       <c r="J10" s="3">
         <v>17065.156151090909</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2791.838175634824</v>
+      </c>
+      <c r="O10" s="3">
+        <v>20265.218484764198</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2890,8 +2952,18 @@
       <c r="J11" s="3">
         <v>18811.352593636359</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2856.454195465536</v>
+      </c>
+      <c r="O11" s="3">
+        <v>18796.326171946799</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2912,8 +2984,18 @@
       <c r="J12" s="3">
         <v>20118.164264090901</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2813.695966868198</v>
+      </c>
+      <c r="O12" s="3">
+        <v>20447.264483675939</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2934,8 +3016,18 @@
       <c r="J13" s="3">
         <v>20924.492259272731</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2599.7113590689228</v>
+      </c>
+      <c r="O13" s="3">
+        <v>23412.508954171699</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2956,8 +3048,18 @@
       <c r="J14" s="3">
         <v>18178.352027909081</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2763.0698407194668</v>
+      </c>
+      <c r="O14" s="3">
+        <v>21606.28185634824</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2978,8 +3080,18 @@
       <c r="J15" s="3">
         <v>18063.04353881818</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2911.8120077690428</v>
+      </c>
+      <c r="O15" s="3">
+        <v>22017.194207617889</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3000,8 +3112,18 @@
       <c r="J16" s="3">
         <v>17960.769985090908</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2789.3686947400229</v>
+      </c>
+      <c r="O16" s="3">
+        <v>19973.39475683192</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3022,8 +3144,18 @@
       <c r="J17" s="3">
         <v>20119.651404363631</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2888.8262824667459</v>
+      </c>
+      <c r="O17" s="3">
+        <v>18507.74081608222</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3044,8 +3176,18 @@
       <c r="J18" s="3">
         <v>21644.570620545452</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2805.8312512998768</v>
+      </c>
+      <c r="O18" s="3">
+        <v>18618.770757557431</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3066,8 +3208,18 @@
       <c r="J19" s="3">
         <v>23864.512096454539</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2849.3288176541701</v>
+      </c>
+      <c r="O19" s="3">
+        <v>18602.039426602169</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3088,8 +3240,18 @@
       <c r="J20" s="3">
         <v>24958.315509545449</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2726.9366535066488</v>
+      </c>
+      <c r="O20" s="3">
+        <v>22810.556403506649</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3110,8 +3272,18 @@
       <c r="J21" s="3">
         <v>20962.44124872726</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2914.215196825875</v>
+      </c>
+      <c r="O21" s="3">
+        <v>17352.219437363961</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3132,8 +3304,18 @@
       <c r="J22" s="3">
         <v>18339.34045499999</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2935.450885761788</v>
+      </c>
+      <c r="O22" s="3">
+        <v>18827.752763482469</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3154,8 +3336,18 @@
       <c r="J23" s="3">
         <v>23269.06675490909</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2767.5930462212809</v>
+      </c>
+      <c r="O23" s="3">
+        <v>21262.259267593701</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3176,8 +3368,18 @@
       <c r="J24" s="3">
         <v>21542.566497545449</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2793.1222759371208</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20819.342617654169</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3198,8 +3400,18 @@
       <c r="J25" s="3">
         <v>18330.88812209091</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2923.37652360943</v>
+      </c>
+      <c r="O25" s="3">
+        <v>16813.565908222488</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3220,8 +3432,18 @@
       <c r="J26" s="3">
         <v>22827.127369090911</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2766.660216233372</v>
+      </c>
+      <c r="O26" s="3">
+        <v>22524.55777726723</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3242,8 +3464,18 @@
       <c r="J27" s="3">
         <v>19638.762176</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2800.838247490929</v>
+      </c>
+      <c r="O27" s="3">
+        <v>20638.249414147522</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3264,8 +3496,18 @@
       <c r="J28" s="3">
         <v>22393.746108090909</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2861.3470669286562</v>
+      </c>
+      <c r="O28" s="3">
+        <v>20155.89631983071</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3286,8 +3528,18 @@
       <c r="J29" s="3">
         <v>17829.180133818179</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2737.8052201027799</v>
+      </c>
+      <c r="O29" s="3">
+        <v>22318.02185888754</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3308,8 +3560,18 @@
       <c r="J30" s="3">
         <v>18731.592356363632</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2848.9587060761769</v>
+      </c>
+      <c r="O30" s="3">
+        <v>19018.6868503023</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3330,8 +3592,18 @@
       <c r="J31" s="3">
         <v>19639.517946999989</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2952.791562454654</v>
+      </c>
+      <c r="O31" s="3">
+        <v>19420.0694185006</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3352,8 +3624,18 @@
       <c r="J32" s="3">
         <v>18384.754042727269</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2893.5728993651742</v>
+      </c>
+      <c r="O32" s="3">
+        <v>17798.769856227322</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3374,8 +3656,18 @@
       <c r="J33" s="3">
         <v>18637.323301</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2726.282274667471</v>
+      </c>
+      <c r="O33" s="3">
+        <v>21226.283994558638</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3396,8 +3688,18 @@
       <c r="J34" s="3">
         <v>21204.743474545448</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2978.5928830411108</v>
+      </c>
+      <c r="O34" s="3">
+        <v>17420.702109794431</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3418,8 +3720,18 @@
       <c r="J35" s="3">
         <v>20010.997476</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2912.8458988814982</v>
+      </c>
+      <c r="O35" s="3">
+        <v>18473.30545961305</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3440,8 +3752,18 @@
       <c r="J36" s="3">
         <v>19380.42285036363</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2852.5376890266011</v>
+      </c>
+      <c r="O36" s="3">
+        <v>17454.639581620311</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3462,8 +3784,18 @@
       <c r="J37" s="3">
         <v>18516.84681618182</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2954.5171431378458</v>
+      </c>
+      <c r="O37" s="3">
+        <v>18004.85036674728</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3484,8 +3816,18 @@
       <c r="J38" s="3">
         <v>20449.70944345454</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2843.3451972188618</v>
+      </c>
+      <c r="O38" s="3">
+        <v>21162.155858645699</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3506,8 +3848,18 @@
       <c r="J39" s="3">
         <v>21041.893743181819</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2966.662873941958</v>
+      </c>
+      <c r="O39" s="3">
+        <v>18632.611671463121</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3528,8 +3880,18 @@
       <c r="J40" s="3">
         <v>18647.03928627272</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2922.2055668379671</v>
+      </c>
+      <c r="O40" s="3">
+        <v>18369.74826940749</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3550,8 +3912,18 @@
       <c r="J41" s="3">
         <v>18939.73535409091</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2754.949067019345</v>
+      </c>
+      <c r="O41" s="3">
+        <v>20807.696695646919</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3572,8 +3944,18 @@
       <c r="J42" s="3">
         <v>21106.589515727272</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2927.184300937121</v>
+      </c>
+      <c r="O42" s="3">
+        <v>18414.218677146309</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3594,8 +3976,18 @@
       <c r="J43" s="3">
         <v>20051.223103818171</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2918.6684993651738</v>
+      </c>
+      <c r="O43" s="3">
+        <v>18497.295867230951</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3616,8 +4008,18 @@
       <c r="J44" s="3">
         <v>23234.030706363628</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2704.45018316203</v>
+      </c>
+      <c r="O44" s="3">
+        <v>20572.048167593712</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3638,8 +4040,18 @@
       <c r="J45" s="3">
         <v>17293.145449636359</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2734.3632188331298</v>
+      </c>
+      <c r="O45" s="3">
+        <v>22080.083211487301</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3660,8 +4072,18 @@
       <c r="J46" s="3">
         <v>19151.196095454539</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2836.573745163239</v>
+      </c>
+      <c r="O46" s="3">
+        <v>21748.155052357921</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3682,8 +4104,18 @@
       <c r="J47" s="3">
         <v>18081.365997272718</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2792.024246584037</v>
+      </c>
+      <c r="O47" s="3">
+        <v>18954.301736033849</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3704,8 +4136,18 @@
       <c r="J48" s="3">
         <v>23746.294160363632</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2906.4532097944361</v>
+      </c>
+      <c r="O48" s="3">
+        <v>20176.82124546553</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3726,8 +4168,18 @@
       <c r="J49" s="3">
         <v>20392.96970436363</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2823.025445012091</v>
+      </c>
+      <c r="O49" s="3">
+        <v>21095.965634220069</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3748,8 +4200,18 @@
       <c r="J50" s="3">
         <v>22381.90146736363</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="3">
+        <v>2648.7003082224901</v>
+      </c>
+      <c r="O50" s="3">
+        <v>23056.736040145101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3770,8 +4232,18 @@
       <c r="J51" s="3">
         <v>18497.424357272721</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <v>2883.6974201027801</v>
+      </c>
+      <c r="O51" s="3">
+        <v>17870.428148851272</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3792,8 +4264,18 @@
       <c r="J52" s="3">
         <v>19636.859455545451</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2980.3108233978219</v>
+      </c>
+      <c r="O52" s="3">
+        <v>18467.325008222491</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3814,8 +4296,18 @@
       <c r="J53" s="3">
         <v>20067.022936909081</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2881.4672779322841</v>
+      </c>
+      <c r="O53" s="3">
+        <v>20892.031016686811</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3836,8 +4328,18 @@
       <c r="J54" s="3">
         <v>18636.77519827272</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2821.8244332527188</v>
+      </c>
+      <c r="O54" s="3">
+        <v>20831.70924026602</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3858,8 +4360,18 @@
       <c r="J55" s="3">
         <v>23534.894932818181</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2891.815589631196</v>
+      </c>
+      <c r="O55" s="3">
+        <v>19332.263778113658</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3882,8 +4394,19 @@
         <f>AVERAGE(J6:J55)</f>
         <v>20155.516589738178</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3">
+        <f>AVERAGE(N6:N55)</f>
+        <v>2837.3332328234565</v>
+      </c>
+      <c r="O57" s="3">
+        <f>AVERAGE(O6:O55)</f>
+        <v>19957.580094372432</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
@@ -3905,6 +4428,17 @@
       <c r="J58" s="3">
         <f>_xlfn.STDEV.S(J6:J55)</f>
         <v>1919.7437021329295</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>86.8681877904705</v>
+      </c>
+      <c r="O58" s="3">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>1687.4534204470879</v>
       </c>
     </row>
   </sheetData>
@@ -3914,9 +4448,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:J59"/>
+  <dimension ref="C5:O59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3924,7 +4460,7 @@
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3933,8 +4469,12 @@
         <v>24</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>27</v>
@@ -3949,8 +4489,15 @@
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -3969,8 +4516,13 @@
       <c r="J7" s="3">
         <v>0.41015617807278831</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f>C7+1</f>
         <v>2</v>
@@ -3991,8 +4543,14 @@
       <c r="J8" s="3">
         <v>0.32321272321548311</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f>M7+1</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" ref="C9:C56" si="0">C8+1</f>
         <v>3</v>
@@ -4013,8 +4571,14 @@
       <c r="J9" s="3">
         <v>0.38546507998697821</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" ref="M9:M56" si="2">M8+1</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4035,8 +4599,14 @@
       <c r="J10" s="3">
         <v>0.41577139520704159</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4057,8 +4627,14 @@
       <c r="J11" s="3">
         <v>0.40716308188498118</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4079,8 +4655,14 @@
       <c r="J12" s="3">
         <v>0.37194676611159122</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4101,8 +4683,14 @@
       <c r="J13" s="3">
         <v>0.39580000305454188</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4123,8 +4711,14 @@
       <c r="J14" s="3">
         <v>0.41467184181656619</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4145,8 +4739,14 @@
       <c r="J15" s="3">
         <v>0.33510426955356359</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4167,8 +4767,14 @@
       <c r="J16" s="3">
         <v>0.31817133091947569</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4189,8 +4795,14 @@
       <c r="J17" s="3">
         <v>0.37195363422800759</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4211,8 +4823,14 @@
       <c r="J18" s="3">
         <v>0.37031821941627019</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4233,8 +4851,14 @@
       <c r="J19" s="3">
         <v>0.36645052767912362</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4255,8 +4879,14 @@
       <c r="J20" s="3">
         <v>0.35750366213192403</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4277,8 +4907,14 @@
       <c r="J21" s="3">
         <v>0.37703458786180311</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4299,8 +4935,14 @@
       <c r="J22" s="3">
         <v>0.33443651139322339</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4321,8 +4963,14 @@
       <c r="J23" s="3">
         <v>0.39485982284200549</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4343,8 +4991,14 @@
       <c r="J24" s="3">
         <v>0.35476590368169381</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4365,8 +5019,14 @@
       <c r="J25" s="3">
         <v>0.3873310974642783</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4387,8 +5047,14 @@
       <c r="J26" s="3">
         <v>0.3208017080563319</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4409,8 +5075,14 @@
       <c r="J27" s="3">
         <v>0.37908976977632758</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4431,8 +5103,14 @@
       <c r="J28" s="3">
         <v>0.35824994174572472</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4453,8 +5131,14 @@
       <c r="J29" s="3">
         <v>0.34693085845024818</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4475,8 +5159,14 @@
       <c r="J30" s="3">
         <v>0.43399170885135818</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4497,8 +5187,14 @@
       <c r="J31" s="3">
         <v>0.40714137180518428</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4519,8 +5215,14 @@
       <c r="J32" s="3">
         <v>0.37151850578025131</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4541,8 +5243,14 @@
       <c r="J33" s="3">
         <v>0.40672577650177721</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4563,8 +5271,14 @@
       <c r="J34" s="3">
         <v>0.41756960156652079</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4585,8 +5299,14 @@
       <c r="J35" s="3">
         <v>0.38843091085729492</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4607,8 +5327,14 @@
       <c r="J36" s="3">
         <v>0.36754499116941308</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4629,8 +5355,14 @@
       <c r="J37" s="3">
         <v>0.35933712743070989</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4651,8 +5383,14 @@
       <c r="J38" s="3">
         <v>0.38527046350906119</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4673,8 +5411,14 @@
       <c r="J39" s="3">
         <v>0.27968968455870918</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4695,8 +5439,14 @@
       <c r="J40" s="3">
         <v>0.39625622902220142</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4717,8 +5467,14 @@
       <c r="J41" s="3">
         <v>0.40996631526493921</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4739,8 +5495,14 @@
       <c r="J42" s="3">
         <v>0.36135968844271887</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4761,8 +5523,14 @@
       <c r="J43" s="3">
         <v>0.4101975092311595</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4783,8 +5551,14 @@
       <c r="J44" s="3">
         <v>0.37363956414253041</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4805,8 +5579,14 @@
       <c r="J45" s="3">
         <v>0.36031826422647939</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4827,8 +5607,14 @@
       <c r="J46" s="3">
         <v>0.36579279890933458</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4849,8 +5635,14 @@
       <c r="J47" s="3">
         <v>0.39937289312887381</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4871,8 +5663,14 @@
       <c r="J48" s="3">
         <v>0.37003915099668327</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4893,8 +5691,14 @@
       <c r="J49" s="3">
         <v>0.35753023069049661</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4915,8 +5719,14 @@
       <c r="J50" s="3">
         <v>0.32021602198157367</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4937,8 +5747,14 @@
       <c r="J51" s="3">
         <v>0.37133143410715708</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4959,8 +5775,14 @@
       <c r="J52" s="3">
         <v>0.37317872638308719</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4981,8 +5803,14 @@
       <c r="J53" s="3">
         <v>0.32576476341149679</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5003,8 +5831,14 @@
       <c r="J54" s="3">
         <v>0.44630727267738479</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5025,8 +5859,14 @@
       <c r="J55" s="3">
         <v>0.40700674546301469</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5047,8 +5887,14 @@
       <c r="J56" s="3">
         <v>0.3868213792977796</v>
       </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
@@ -5071,8 +5917,19 @@
         <f>AVERAGE(J7:J56)</f>
         <v>0.37499016087914322</v>
       </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="M58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="3" t="e">
+        <f>AVERAGE(N7:N56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="3" t="e">
+        <f>AVERAGE(O7:O56)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
@@ -5094,6 +5951,17 @@
       <c r="J59" s="3">
         <f>_xlfn.STDEV.S(J7:J56)</f>
         <v>3.3083329176637234E-2</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="e">
+        <f>_xlfn.STDEV.S(N7:N56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="3" t="e">
+        <f>_xlfn.STDEV.S(O7:O56)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,8 +4519,12 @@
       <c r="M7" s="2">
         <v>1</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>0.90626000101659332</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.29882261912862768</v>
+      </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -4547,8 +4551,12 @@
         <f>M7+1</f>
         <v>2</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3">
+        <v>0.90657345350531582</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.34011562832392628</v>
+      </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -4575,8 +4583,12 @@
         <f t="shared" ref="M9:M56" si="2">M8+1</f>
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3">
+        <v>0.90720916506763183</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.32182287120763259</v>
+      </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -4603,8 +4615,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3">
+        <v>0.9098535598369728</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.28274518660613551</v>
+      </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -4631,8 +4647,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3">
+        <v>0.90576070844688084</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.36367843821650853</v>
+      </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -4659,8 +4679,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3">
+        <v>0.90761980000094977</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.36244548402581872</v>
+      </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -4687,8 +4711,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3">
+        <v>0.90412014610134561</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.40843237492926021</v>
+      </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -4715,8 +4743,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3">
+        <v>0.9046306202816925</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.34955605951898733</v>
+      </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -4743,8 +4775,12 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3">
+        <v>0.90569452016532936</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.32254337746733269</v>
+      </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -4771,8 +4807,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3">
+        <v>0.9076183412995068</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.32536411463433618</v>
+      </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -4799,8 +4839,12 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3">
+        <v>0.90517540262399099</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.39284563759546282</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -4827,8 +4871,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3">
+        <v>0.9034486839070538</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.38287526764417001</v>
+      </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -4855,8 +4903,12 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3">
+        <v>0.90243315857738182</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.38949881076300719</v>
+      </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -4883,8 +4935,12 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3">
+        <v>0.90624690149180509</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.31319806777032561</v>
+      </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -4911,8 +4967,12 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3">
+        <v>0.90540305191518866</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.36677088688815851</v>
+      </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -4939,8 +4999,12 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3">
+        <v>0.90546229019449231</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.3856129024270184</v>
+      </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -4967,8 +5031,12 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3">
+        <v>0.90702845443644531</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.36538145648739428</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -4995,8 +5063,12 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3">
+        <v>0.90508095272834221</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.34932253338883129</v>
+      </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -5023,8 +5095,12 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3">
+        <v>0.90631295288708069</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.37910191238947388</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -5051,8 +5127,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3">
+        <v>0.90488047459122611</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.36133300974420091</v>
+      </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -5079,8 +5159,12 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3">
+        <v>0.90598858574507335</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.35842024010517598</v>
+      </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -5107,8 +5191,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3">
+        <v>0.90769561075801442</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.33336880255463769</v>
+      </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
@@ -5135,8 +5223,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3">
+        <v>0.90667150892727733</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.36733681381002747</v>
+      </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
@@ -5163,8 +5255,12 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3">
+        <v>0.90648190216870994</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.35027813829818572</v>
+      </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
@@ -5191,8 +5287,12 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3">
+        <v>0.91057295020261286</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.30814328680811459</v>
+      </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
@@ -5219,8 +5319,12 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3">
+        <v>0.90947132785696816</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.3004273315736955</v>
+      </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
@@ -5247,8 +5351,12 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3">
+        <v>0.90900814210990299</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.27521873526807988</v>
+      </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
@@ -5275,8 +5383,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3">
+        <v>0.90498843367950565</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.38652957709167579</v>
+      </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
@@ -5303,8 +5415,12 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3">
+        <v>0.90783204134218842</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.30978256563246021</v>
+      </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
@@ -5331,8 +5447,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3">
+        <v>0.90594327662186369</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.33606103930597497</v>
+      </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
@@ -5359,8 +5479,12 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3">
+        <v>0.90912834611131643</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.28770549185594613</v>
+      </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
@@ -5387,8 +5511,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3">
+        <v>0.90879259664274525</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.3063683452075302</v>
+      </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
@@ -5415,8 +5543,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="N39" s="3">
+        <v>0.90533255880550079</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.34063959747263461</v>
+      </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
@@ -5443,8 +5575,12 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="N40" s="3">
+        <v>0.90592984672362409</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.33380104611881628</v>
+      </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
@@ -5471,8 +5607,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="N41" s="3">
+        <v>0.90344610797045954</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.37010666260113129</v>
+      </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
@@ -5499,8 +5639,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="N42" s="3">
+        <v>0.90903536432786392</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.32173427166373669</v>
+      </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
@@ -5527,8 +5671,12 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="3">
+        <v>0.9055344869691998</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.36123067462406472</v>
+      </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
@@ -5555,8 +5703,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="N44" s="3">
+        <v>0.91250945735103683</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.26798931677120019</v>
+      </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
@@ -5583,8 +5735,12 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="N45" s="3">
+        <v>0.90071418677979054</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.43595283770815429</v>
+      </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
@@ -5611,8 +5767,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="N46" s="3">
+        <v>0.90738315227285038</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.36379455850921172</v>
+      </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
@@ -5639,8 +5799,12 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="N47" s="3">
+        <v>0.90650565266722416</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.30958317486962578</v>
+      </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
@@ -5667,8 +5831,12 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="N48" s="3">
+        <v>0.90472585313007414</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.40755156114798469</v>
+      </c>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
@@ -5695,8 +5863,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="N49" s="3">
+        <v>0.90607069436428866</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.38329083470614039</v>
+      </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
@@ -5723,8 +5895,12 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="N50" s="3">
+        <v>0.90559309073064764</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.36546783717085402</v>
+      </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
@@ -5751,8 +5927,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
+      <c r="N51" s="3">
+        <v>0.90944898479038772</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.27008550987819901</v>
+      </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
@@ -5779,8 +5959,12 @@
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="N52" s="3">
+        <v>0.90666773076674567</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.32297919292500821</v>
+      </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
@@ -5807,8 +5991,12 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="N53" s="3">
+        <v>0.90600705351094168</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.34423922446083949</v>
+      </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
@@ -5835,8 +6023,12 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="3">
+        <v>0.90784995762520859</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.37460137158702012</v>
+      </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
@@ -5863,8 +6055,12 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
+      <c r="N55" s="3">
+        <v>0.90758454182621517</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.37273695998494238</v>
+      </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
@@ -5891,8 +6087,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
+      <c r="N56" s="3">
+        <v>0.90425138650911197</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0.34760709676177748</v>
+      </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
@@ -5920,13 +6120,13 @@
       <c r="M58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N58" s="3" t="e">
+      <c r="N58" s="3">
         <f>AVERAGE(N7:N56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="3" t="e">
+        <v>0.90647954936725172</v>
+      </c>
+      <c r="O58" s="3">
         <f>AVERAGE(O7:O56)</f>
-        <v>#DIV/0!</v>
+        <v>0.34548997471258902</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.25">
@@ -5955,13 +6155,13 @@
       <c r="M59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3" t="e">
+      <c r="N59" s="3">
         <f>_xlfn.STDEV.S(N7:N56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="3" t="e">
+        <v>2.1161774610039099E-3</v>
+      </c>
+      <c r="O59" s="3">
         <f>_xlfn.STDEV.S(O7:O56)</f>
-        <v>#DIV/0!</v>
+        <v>3.7974669874054734E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
-    <sheet name="mse" sheetId="3" r:id="rId2"/>
-    <sheet name="r2" sheetId="4" r:id="rId3"/>
-    <sheet name="significance" sheetId="2" r:id="rId4"/>
+    <sheet name="mae (3Y size)" sheetId="5" r:id="rId2"/>
+    <sheet name="mse" sheetId="3" r:id="rId3"/>
+    <sheet name="r2" sheetId="4" r:id="rId4"/>
+    <sheet name="r2 (3Y size)" sheetId="6" r:id="rId5"/>
+    <sheet name="significance" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -115,6 +117,9 @@
   </si>
   <si>
     <t>dataset 24-f 3Y</t>
+  </si>
+  <si>
+    <t>Датасеты сокращены до размера 3Y</t>
   </si>
 </sst>
 </file>
@@ -507,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,6 +2726,1339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:O59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>35.832255139056826</v>
+      </c>
+      <c r="O7" s="3">
+        <v>98.318391777509063</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f>C7+1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="2">
+        <f>H7+1</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="2">
+        <f>M7+1</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>36.133600362756951</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100.3363482466747</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C56" si="0">C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:H56" si="1">H8+1</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9:M56" si="2">M8+1</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>36.419489117291413</v>
+      </c>
+      <c r="O9" s="3">
+        <v>99.131112454655366</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>36.462391172914138</v>
+      </c>
+      <c r="O10" s="3">
+        <v>96.707061668681973</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>36.285689238210388</v>
+      </c>
+      <c r="O11" s="3">
+        <v>95.482938331317996</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>36.41876360338572</v>
+      </c>
+      <c r="O12" s="3">
+        <v>97.002503022974594</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>35.953207376058032</v>
+      </c>
+      <c r="O13" s="3">
+        <v>97.838621523579192</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>35.799238210399032</v>
+      </c>
+      <c r="O14" s="3">
+        <v>101.16273276904469</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="3">
+        <v>35.573612454655382</v>
+      </c>
+      <c r="O15" s="3">
+        <v>103.77903264812571</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="3">
+        <v>36.124368198307131</v>
+      </c>
+      <c r="O16" s="3">
+        <v>98.979613059250283</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N17" s="3">
+        <v>35.522212817412317</v>
+      </c>
+      <c r="O17" s="3">
+        <v>103.0914631197098</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N18" s="3">
+        <v>36.307246070132997</v>
+      </c>
+      <c r="O18" s="3">
+        <v>95.663470374848842</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N19" s="3">
+        <v>35.824803506650539</v>
+      </c>
+      <c r="O19" s="3">
+        <v>98.451330108827079</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N20" s="3">
+        <v>35.884990931076167</v>
+      </c>
+      <c r="O20" s="3">
+        <v>101.5836517533253</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="3">
+        <v>36.351357315598541</v>
+      </c>
+      <c r="O21" s="3">
+        <v>95.264873035066486</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N22" s="3">
+        <v>36.645169286577989</v>
+      </c>
+      <c r="O22" s="3">
+        <v>94.841233373639639</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N23" s="3">
+        <v>36.350925030229739</v>
+      </c>
+      <c r="O23" s="3">
+        <v>94.213482466747266</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N24" s="3">
+        <v>35.912605804111237</v>
+      </c>
+      <c r="O24" s="3">
+        <v>103.2512938331318</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N25" s="3">
+        <v>36.045205562273267</v>
+      </c>
+      <c r="O25" s="3">
+        <v>99.938948004836746</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="3">
+        <v>36.00307134220072</v>
+      </c>
+      <c r="O26" s="3">
+        <v>97.08368802902055</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N27" s="3">
+        <v>36.257708585247883</v>
+      </c>
+      <c r="O27" s="3">
+        <v>94.129359129383289</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N28" s="3">
+        <v>34.841505441354293</v>
+      </c>
+      <c r="O28" s="3">
+        <v>105.2663119709794</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N29" s="3">
+        <v>36.060840386940747</v>
+      </c>
+      <c r="O29" s="3">
+        <v>95.697799274486101</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N30" s="3">
+        <v>36.275338573155977</v>
+      </c>
+      <c r="O30" s="3">
+        <v>93.815247883917763</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N31" s="3">
+        <v>36.032877871825868</v>
+      </c>
+      <c r="O31" s="3">
+        <v>97.155090689238207</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N32" s="3">
+        <v>36.289356106408697</v>
+      </c>
+      <c r="O32" s="3">
+        <v>96.109443772672279</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N33" s="3">
+        <v>36.535329504232159</v>
+      </c>
+      <c r="O33" s="3">
+        <v>93.001039903264797</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N34" s="3">
+        <v>36.240788996372423</v>
+      </c>
+      <c r="O34" s="3">
+        <v>92.791813784764187</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N35" s="3">
+        <v>36.136405683192258</v>
+      </c>
+      <c r="O35" s="3">
+        <v>101.4413542926239</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N36" s="3">
+        <v>35.768790810157178</v>
+      </c>
+      <c r="O36" s="3">
+        <v>102.3724062877872</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N37" s="3">
+        <v>36.444924425634817</v>
+      </c>
+      <c r="O37" s="3">
+        <v>97.087750906892367</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="3">
+        <v>35.171417775090681</v>
+      </c>
+      <c r="O38" s="3">
+        <v>104.0911850060459</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N39" s="3">
+        <v>36.224873035066501</v>
+      </c>
+      <c r="O39" s="3">
+        <v>96.778089480048365</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N40" s="3">
+        <v>36.403367593712197</v>
+      </c>
+      <c r="O40" s="3">
+        <v>93.845030229746072</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N41" s="3">
+        <v>36.47707678355502</v>
+      </c>
+      <c r="O41" s="3">
+        <v>92.598500604594918</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N42" s="3">
+        <v>36.005788996372416</v>
+      </c>
+      <c r="O42" s="3">
+        <v>98.257363966142677</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N43" s="3">
+        <v>36.483494558645702</v>
+      </c>
+      <c r="O43" s="3">
+        <v>92.696880290205542</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N44" s="3">
+        <v>35.780399032648113</v>
+      </c>
+      <c r="O44" s="3">
+        <v>98.298561064087053</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N45" s="3">
+        <v>36.080828295042323</v>
+      </c>
+      <c r="O45" s="3">
+        <v>97.107061668681979</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N46" s="3">
+        <v>36.587279322853682</v>
+      </c>
+      <c r="O46" s="3">
+        <v>95.856106408706154</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N47" s="3">
+        <v>37.123627569528402</v>
+      </c>
+      <c r="O47" s="3">
+        <v>90.014727932285354</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N48" s="3">
+        <v>36.321717049576783</v>
+      </c>
+      <c r="O48" s="3">
+        <v>98.349987908101554</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N49" s="3">
+        <v>36.328282950423208</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100.666892382104</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N50" s="3">
+        <v>36.503763603385728</v>
+      </c>
+      <c r="O50" s="3">
+        <v>94.738948004836743</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N51" s="3">
+        <v>35.867273276904463</v>
+      </c>
+      <c r="O51" s="3">
+        <v>101.0377629987908</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N52" s="3">
+        <v>36.463666868198302</v>
+      </c>
+      <c r="O52" s="3">
+        <v>91.74227327690447</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N53" s="3">
+        <v>35.61554111245465</v>
+      </c>
+      <c r="O53" s="3">
+        <v>101.5007376058041</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N54" s="3">
+        <v>36.99210399032647</v>
+      </c>
+      <c r="O54" s="3">
+        <v>90.444594921402654</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N55" s="3">
+        <v>36.7815568319226</v>
+      </c>
+      <c r="O55" s="3">
+        <v>88.84430471584038</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="H56" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="M56" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N56" s="3">
+        <v>35.489141475211603</v>
+      </c>
+      <c r="O56" s="3">
+        <v>101.0458041112455</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="e">
+        <f>AVERAGE(D7:D56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="3" t="e">
+        <f>AVERAGE(E7:E56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="3" t="e">
+        <f>AVERAGE(I7:I56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="3" t="e">
+        <f>AVERAGE(J7:J56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58" s="3">
+        <f>AVERAGE(N7:N56)</f>
+        <v>36.14870538089481</v>
+      </c>
+      <c r="O58" s="3">
+        <f>AVERAGE(O7:O56)</f>
+        <v>97.378084401451034</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3" t="e">
+        <f>_xlfn.STDEV.S(D7:D56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E59" s="3" t="e">
+        <f>_xlfn.STDEV.S(E7:E56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="e">
+        <f>_xlfn.STDEV.S(I7:I56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="3" t="e">
+        <f>_xlfn.STDEV.S(J7:J56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
+        <f>_xlfn.STDEV.S(N7:N56)</f>
+        <v>0.42326153855137794</v>
+      </c>
+      <c r="O59" s="3">
+        <f>_xlfn.STDEV.S(O7:O56)</f>
+        <v>3.8841638495220545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -4446,12 +5784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6169,7 +7507,1526 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:O58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.90631334188862123</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.27052809876874462</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.90626000101659332</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.29882261912862768</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.90438845486745489</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.30828107011683781</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H6+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.90657345350531582</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.34011562832392628</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.90244219651195123</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.35444500409580532</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H55" si="1">H7+1</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.90720916506763183</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.32182287120763259</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.90277113707432233</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.3218661067841837</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.9098535598369728</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.28274518660613551</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.90245942215449559</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.30403711632376218</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.90576070844688084</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.36367843821650853</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.90527182282291696</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.32394876452187488</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.90761980000094977</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.36244548402581872</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.90323227531334449</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.25375878769962662</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.90412014610134561</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.40843237492926021</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.90446176574914217</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.3179813669364131</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.9046306202816925</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.34955605951898733</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.90352719005201088</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.28352073006611622</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.90569452016532936</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.32254337746733269</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.90336947654949895</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.33540273905557272</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.9076183412995068</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.32536411463433618</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.90288093293718652</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.32777448886590071</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.90517540262399099</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.39284563759546282</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.90416037028603391</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.27776136305281279</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.9034486839070538</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.38287526764417001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.90030364971761623</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.36355393697151023</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.90243315857738182</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.38949881076300719</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.90420788538286523</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.31002900700776298</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.90624690149180509</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.31319806777032561</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.90503472790477169</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.31821997270794927</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.90540305191518866</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.36677088688815851</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.90534368777329388</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.29492272098845762</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.90546229019449231</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.3856129024270184</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.90300077349925267</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.34152743960403309</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.90702845443644531</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.36538145648739428</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.90974010858026411</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.25978187365374511</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.90508095272834221</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.34932253338883129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.90449613183984834</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.28291353120997181</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.90631295288708069</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.37910191238947388</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.90369984490811561</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.32249236100403889</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.90488047459122611</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.36133300974420091</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.90390648386436168</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.30234092225989551</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.90598858574507335</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.35842024010517598</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.89934129164538101</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.36539261490595148</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.90769561075801442</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.33336880255463769</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.90486714054779083</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.34610159504855609</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.90667150892727733</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.36733681381002747</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.90595897228194189</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.34131652284021069</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.90648190216870994</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.35027813829818572</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.90575665045608411</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.30362065241304348</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.91057295020261286</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.30814328680811459</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.90543563695054519</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.29765681819347639</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.90947132785696816</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.3004273315736955</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.90457805608450781</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.32189067036563701</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.90900814210990299</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.27521873526807988</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.90647221632964281</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.24934048959414179</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.90498843367950565</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.38652957709167579</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.90366791989877149</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.33478220171107742</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.90783204134218842</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.30978256563246021</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.90280133281414754</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.34515775539887628</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.90594327662186369</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.33606103930597497</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.90166187899558015</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.33033345092017302</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.90912834611131643</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.28770549185594613</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.90350614786496597</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.31647715855897679</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.90879259664274525</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.3063683452075302</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.90170735214581244</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.3340998064792835</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.90533255880550079</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.34063959747263461</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.90654641881854525</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.28843797499032281</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.90592984672362409</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.33380104611881628</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.90601712150275215</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.28411043262348751</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.90344610797045954</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.37010666260113129</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.90212533349767399</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.31849616203577641</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.90903536432786392</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.32173427166373669</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.90471958767149552</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.35265432163932542</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.9055344869691998</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.36123067462406472</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.90355041825052551</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.31008509324465522</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.91250945735103683</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.26798931677120019</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.90384270270693345</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.33144861564230588</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.90071418677979054</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.43595283770815429</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.90697331288584004</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.27136467130409248</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.90738315227285038</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.36379455850921172</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.90174609276213846</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.29673757891827002</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.90650565266722416</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.30958317486962578</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.90265567923914425</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.29320783667860711</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.90472585313007414</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.40755156114798469</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.90074197302613979</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.40168103514398601</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.90607069436428866</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.38329083470614039</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.9048626160050256</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.31428281587729978</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.90559309073064764</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.36546783717085402</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.90356542041692633</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.17962804209406311</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.90944898479038772</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.27008550987819901</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.9039655925801473</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.35204345145543492</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.90666773076674567</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.32297919292500821</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.90547086100972307</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.29530097121948451</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.90600705351094168</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.34423922446083949</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.90380861462100337</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.29772137193890841</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.90784995762520859</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.37460137158702012</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.90380206325958934</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.31042452902500911</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.90758454182621517</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.37273695998494238</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.90338369412013353</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.28749726804145248</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.90425138650911197</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0.34760709676177748</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>0.9039708755613256</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>0.31092758619993804</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3" t="e">
+        <f>AVERAGE(I6:I55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="3" t="e">
+        <f>AVERAGE(J6:J55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3">
+        <f>AVERAGE(N6:N55)</f>
+        <v>0.90647954936725172</v>
+      </c>
+      <c r="O57" s="3">
+        <f>AVERAGE(O6:O55)</f>
+        <v>0.34548997471258902</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>1.8186792735784582E-3</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>3.590569776218424E-2</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="e">
+        <f>_xlfn.STDEV.S(I6:I55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="3" t="e">
+        <f>_xlfn.STDEV.S(J6:J55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>2.1161774610039099E-3</v>
+      </c>
+      <c r="O58" s="3">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>3.7974669874054734E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I41"/>
   <sheetViews>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
     <sheet name="mae (3Y size)" sheetId="5" r:id="rId2"/>
     <sheet name="mse" sheetId="3" r:id="rId3"/>
-    <sheet name="r2" sheetId="4" r:id="rId4"/>
-    <sheet name="r2 (3Y size)" sheetId="6" r:id="rId5"/>
-    <sheet name="significance" sheetId="2" r:id="rId6"/>
+    <sheet name="mse (3Y size)" sheetId="7" r:id="rId4"/>
+    <sheet name="r2" sheetId="4" r:id="rId5"/>
+    <sheet name="r2 (3Y size)" sheetId="6" r:id="rId6"/>
+    <sheet name="significance" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="32">
   <si>
     <t>train (MAE)</t>
   </si>
@@ -2728,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,13 +2789,21 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>38.061290810157189</v>
+      </c>
+      <c r="E7" s="3">
+        <v>102.1773276904474</v>
+      </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>36.442315598548973</v>
+      </c>
+      <c r="J7" s="3">
+        <v>104.5041112454655</v>
+      </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
@@ -2810,14 +2819,22 @@
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>38.92200725513905</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100.4325876662636</v>
+      </c>
       <c r="H8" s="2">
         <f>H7+1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>37.805788996372421</v>
+      </c>
+      <c r="J8" s="3">
+        <v>92.748573155985497</v>
+      </c>
       <c r="M8" s="2">
         <f>M7+1</f>
         <v>2</v>
@@ -2834,14 +2851,22 @@
         <f t="shared" ref="C9:C56" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>38.758025997581598</v>
+      </c>
+      <c r="E9" s="3">
+        <v>102.34908101571941</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" ref="H9:H56" si="1">H8+1</f>
         <v>3</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>37.098772672309543</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100.0548367593712</v>
+      </c>
       <c r="M9" s="2">
         <f t="shared" ref="M9:M56" si="2">M8+1</f>
         <v>3</v>
@@ -2858,14 +2883,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <v>38.567297460701319</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100.9201934703749</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3">
+        <v>36.902935308343402</v>
+      </c>
+      <c r="J10" s="3">
+        <v>96.141124546553797</v>
+      </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2882,14 +2915,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>38.04359733978233</v>
+      </c>
+      <c r="E11" s="3">
+        <v>102.0640024183797</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>37.067412333736392</v>
+      </c>
+      <c r="J11" s="3">
+        <v>94.926505441354294</v>
+      </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2906,14 +2947,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3">
+        <v>38.41441958887544</v>
+      </c>
+      <c r="E12" s="3">
+        <v>99.473022974607005</v>
+      </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>36.876139661426834</v>
+      </c>
+      <c r="J12" s="3">
+        <v>102.2036638452237</v>
+      </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2930,14 +2979,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3">
+        <v>37.99214631197097</v>
+      </c>
+      <c r="E13" s="3">
+        <v>105.6026964933494</v>
+      </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>37.068678960096733</v>
+      </c>
+      <c r="J13" s="3">
+        <v>94.356082224909301</v>
+      </c>
       <c r="M13" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2954,14 +3011,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3">
+        <v>38.078948004836747</v>
+      </c>
+      <c r="E14" s="3">
+        <v>107.40737605804109</v>
+      </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>36.329918379685601</v>
+      </c>
+      <c r="J14" s="3">
+        <v>101.24486094316811</v>
+      </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2978,14 +3043,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3">
+        <v>38.689700725513887</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100.7995525997581</v>
+      </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>36.439074969770253</v>
+      </c>
+      <c r="J15" s="3">
+        <v>97.944667472793213</v>
+      </c>
       <c r="M15" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3002,14 +3075,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3">
+        <v>38.17045344619104</v>
+      </c>
+      <c r="E16" s="3">
+        <v>104.749830713422</v>
+      </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>36.137418379685599</v>
+      </c>
+      <c r="J16" s="3">
+        <v>102.8430592503023</v>
+      </c>
       <c r="M16" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3026,14 +3107,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3">
+        <v>38.871048972188618</v>
+      </c>
+      <c r="E17" s="3">
+        <v>101.6337122128174</v>
+      </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3">
+        <v>36.883497581620297</v>
+      </c>
+      <c r="J17" s="3">
+        <v>99.039044740024181</v>
+      </c>
       <c r="M17" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3050,14 +3139,22 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3">
+        <v>37.600719467956459</v>
+      </c>
+      <c r="E18" s="3">
+        <v>105.6400120918984</v>
+      </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3">
+        <v>36.777049576783547</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100.71084643288999</v>
+      </c>
       <c r="M18" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3074,14 +3171,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3">
+        <v>38.063742442563473</v>
+      </c>
+      <c r="E19" s="3">
+        <v>105.43747279322849</v>
+      </c>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3">
+        <v>37.39787787182587</v>
+      </c>
+      <c r="J19" s="3">
+        <v>98.853748488512679</v>
+      </c>
       <c r="M19" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3098,14 +3203,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3">
+        <v>38.84271463119709</v>
+      </c>
+      <c r="E20" s="3">
+        <v>103.70226118500599</v>
+      </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>36.744307738814982</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100.8169044740024</v>
+      </c>
       <c r="M20" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3122,14 +3235,22 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3">
+        <v>38.752953446191043</v>
+      </c>
+      <c r="E21" s="3">
+        <v>101.5110399032648</v>
+      </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>36.909522370012077</v>
+      </c>
+      <c r="J21" s="3">
+        <v>97.682261185006027</v>
+      </c>
       <c r="M21" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3146,14 +3267,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3">
+        <v>38.242318621523573</v>
+      </c>
+      <c r="E22" s="3">
+        <v>104.84975816203141</v>
+      </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="3">
+        <v>36.152351874244253</v>
+      </c>
+      <c r="J22" s="3">
+        <v>99.460652962515098</v>
+      </c>
       <c r="M22" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3170,14 +3299,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3">
+        <v>38.527678355501799</v>
+      </c>
+      <c r="E23" s="3">
+        <v>102.1735671100362</v>
+      </c>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>36.579123337363953</v>
+      </c>
+      <c r="J23" s="3">
+        <v>105.4057315598549</v>
+      </c>
       <c r="M23" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3194,14 +3331,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3">
+        <v>38.938162031438928</v>
+      </c>
+      <c r="E24" s="3">
+        <v>98.921946795646889</v>
+      </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3">
+        <v>36.726934703748483</v>
+      </c>
+      <c r="J24" s="3">
+        <v>98.871946795646892</v>
+      </c>
       <c r="M24" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3218,14 +3363,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3">
+        <v>38.83038391777508</v>
+      </c>
+      <c r="E25" s="3">
+        <v>102.1352357920193</v>
+      </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3">
+        <v>36.195253929866979</v>
+      </c>
+      <c r="J25" s="3">
+        <v>102.76729141475209</v>
+      </c>
       <c r="M25" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3242,14 +3395,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="3">
+        <v>38.433007859733969</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100.6882224909311</v>
+      </c>
       <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="3">
+        <v>36.851753325272057</v>
+      </c>
+      <c r="J26" s="3">
+        <v>102.5733857315598</v>
+      </c>
       <c r="M26" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3266,14 +3427,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="3">
+        <v>38.918582224909287</v>
+      </c>
+      <c r="E27" s="3">
+        <v>98.499105199516322</v>
+      </c>
       <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>36.966197097944367</v>
+      </c>
+      <c r="J27" s="3">
+        <v>99.288101571946783</v>
+      </c>
       <c r="M27" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -3290,14 +3459,22 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3">
+        <v>39.386417775090678</v>
+      </c>
+      <c r="E28" s="3">
+        <v>96.149818621523579</v>
+      </c>
       <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3">
+        <v>36.1182829504232</v>
+      </c>
+      <c r="J28" s="3">
+        <v>101.4148972188634</v>
+      </c>
       <c r="M28" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -3314,14 +3491,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3">
+        <v>38.750111850060449</v>
+      </c>
+      <c r="E29" s="3">
+        <v>101.3825513905683</v>
+      </c>
       <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="3">
+        <v>36.669020556227323</v>
+      </c>
+      <c r="J29" s="3">
+        <v>99.718210399032642</v>
+      </c>
       <c r="M29" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -3338,14 +3523,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="3">
+        <v>37.904325876662618</v>
+      </c>
+      <c r="E30" s="3">
+        <v>114.2077509068924</v>
+      </c>
       <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3">
+        <v>36.890278113663832</v>
+      </c>
+      <c r="J30" s="3">
+        <v>95.157327690447389</v>
+      </c>
       <c r="M30" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -3362,14 +3555,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3">
+        <v>38.708830108827073</v>
+      </c>
+      <c r="E31" s="3">
+        <v>102.0183555018138</v>
+      </c>
       <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3">
+        <v>37.401765417170488</v>
+      </c>
+      <c r="J31" s="3">
+        <v>92.898694074969754</v>
+      </c>
       <c r="M31" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -3386,14 +3587,22 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3">
+        <v>38.225837363966143</v>
+      </c>
+      <c r="E32" s="3">
+        <v>102.44945586457069</v>
+      </c>
       <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="I32" s="3">
+        <v>36.908325272067707</v>
+      </c>
+      <c r="J32" s="3">
+        <v>97.536469165659</v>
+      </c>
       <c r="M32" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3410,14 +3619,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3">
+        <v>38.414767230955249</v>
+      </c>
+      <c r="E33" s="3">
+        <v>105.75931076178961</v>
+      </c>
       <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3">
+        <v>37.316333131801677</v>
+      </c>
+      <c r="J33" s="3">
+        <v>91.85760580411123</v>
+      </c>
       <c r="M33" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3434,14 +3651,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3">
+        <v>38.842330713421987</v>
+      </c>
+      <c r="E34" s="3">
+        <v>97.287968561064062</v>
+      </c>
       <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3">
+        <v>36.278431076178947</v>
+      </c>
+      <c r="J34" s="3">
+        <v>102.6873276904474</v>
+      </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -3458,14 +3683,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3">
+        <v>39.305782950423207</v>
+      </c>
+      <c r="E35" s="3">
+        <v>96.824800483675915</v>
+      </c>
       <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3">
+        <v>36.410674123337351</v>
+      </c>
+      <c r="J35" s="3">
+        <v>102.65201934703749</v>
+      </c>
       <c r="M35" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -3482,14 +3715,22 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="3">
+        <v>38.21002418379684</v>
+      </c>
+      <c r="E36" s="3">
+        <v>102.6330350665054</v>
+      </c>
       <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="I36" s="3">
+        <v>36.632237001209177</v>
+      </c>
+      <c r="J36" s="3">
+        <v>98.778415961305924</v>
+      </c>
       <c r="M36" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -3506,14 +3747,22 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="3">
+        <v>39.178467351874232</v>
+      </c>
+      <c r="E37" s="3">
+        <v>98.781789600967343</v>
+      </c>
       <c r="H37" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="I37" s="3">
+        <v>36.149513301088263</v>
+      </c>
+      <c r="J37" s="3">
+        <v>104.2312817412334</v>
+      </c>
       <c r="M37" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -3530,14 +3779,22 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="3">
+        <v>37.994613059250291</v>
+      </c>
+      <c r="E38" s="3">
+        <v>102.44163240628779</v>
+      </c>
       <c r="H38" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="I38" s="3">
+        <v>36.779779322853678</v>
+      </c>
+      <c r="J38" s="3">
+        <v>94.761330108827082</v>
+      </c>
       <c r="M38" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -3554,14 +3811,22 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="3">
+        <v>38.686904474002411</v>
+      </c>
+      <c r="E39" s="3">
+        <v>101.33597339782349</v>
+      </c>
       <c r="H39" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="3">
+        <v>36.627276299879071</v>
+      </c>
+      <c r="J39" s="3">
+        <v>98.935356711003607</v>
+      </c>
       <c r="M39" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -3578,14 +3843,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3">
+        <v>37.809682587666252</v>
+      </c>
+      <c r="E40" s="3">
+        <v>105.2276178960097</v>
+      </c>
       <c r="H40" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="3">
+        <v>37.460589480048348</v>
+      </c>
+      <c r="J40" s="3">
+        <v>90.469250302297453</v>
+      </c>
       <c r="M40" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -3602,14 +3875,22 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="3">
+        <v>38.364918379685612</v>
+      </c>
+      <c r="E41" s="3">
+        <v>105.42056831922611</v>
+      </c>
       <c r="H41" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="3">
+        <v>37.252288391777491</v>
+      </c>
+      <c r="J41" s="3">
+        <v>95.337545344619102</v>
+      </c>
       <c r="M41" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -3626,14 +3907,22 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3">
+        <v>38.801992140266009</v>
+      </c>
+      <c r="E42" s="3">
+        <v>99.342636033857303</v>
+      </c>
       <c r="H42" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3">
+        <v>36.461801692865777</v>
+      </c>
+      <c r="J42" s="3">
+        <v>100.8314510278114</v>
+      </c>
       <c r="M42" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -3650,14 +3939,22 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="3">
+        <v>37.58660217654171</v>
+      </c>
+      <c r="E43" s="3">
+        <v>106.6132889963724</v>
+      </c>
       <c r="H43" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="I43" s="3">
+        <v>37.127113059250298</v>
+      </c>
+      <c r="J43" s="3">
+        <v>97.040278113663831</v>
+      </c>
       <c r="M43" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -3674,14 +3971,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D44" s="3">
+        <v>38.842642079806517</v>
+      </c>
+      <c r="E44" s="3">
+        <v>98.625465538089458</v>
+      </c>
       <c r="H44" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="3">
+        <v>36.832741837968548</v>
+      </c>
+      <c r="J44" s="3">
+        <v>104.0770858524788</v>
+      </c>
       <c r="M44" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -3698,14 +4003,22 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="3">
+        <v>39.116928657799257</v>
+      </c>
+      <c r="E45" s="3">
+        <v>99.892382103990315</v>
+      </c>
       <c r="H45" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="I45" s="3">
+        <v>36.887103990326473</v>
+      </c>
+      <c r="J45" s="3">
+        <v>101.836723095526</v>
+      </c>
       <c r="M45" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -3722,14 +4035,22 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="3">
+        <v>39.004815598548959</v>
+      </c>
+      <c r="E46" s="3">
+        <v>98.480435308343388</v>
+      </c>
       <c r="H46" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3">
+        <v>37.063521765417157</v>
+      </c>
+      <c r="J46" s="3">
+        <v>98.302926239419577</v>
+      </c>
       <c r="M46" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -3746,14 +4067,22 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="3">
+        <v>38.600223700120907</v>
+      </c>
+      <c r="E47" s="3">
+        <v>102.6650906892382</v>
+      </c>
       <c r="H47" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3">
+        <v>36.734993954050779</v>
+      </c>
+      <c r="J47" s="3">
+        <v>97.898029020556223</v>
+      </c>
       <c r="M47" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3770,14 +4099,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="3">
+        <v>38.317273276904459</v>
+      </c>
+      <c r="E48" s="3">
+        <v>103.9348004836759</v>
+      </c>
       <c r="H48" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="I48" s="3">
+        <v>36.616148730350652</v>
+      </c>
+      <c r="J48" s="3">
+        <v>102.2719226118501</v>
+      </c>
       <c r="M48" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -3794,14 +4131,22 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="D49" s="3">
+        <v>38.561871221281727</v>
+      </c>
+      <c r="E49" s="3">
+        <v>103.9639419588875</v>
+      </c>
       <c r="H49" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="I49" s="3">
+        <v>36.977073760580403</v>
+      </c>
+      <c r="J49" s="3">
+        <v>96.458077388149931</v>
+      </c>
       <c r="M49" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -3818,14 +4163,22 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="3">
+        <v>37.369543530834328</v>
+      </c>
+      <c r="E50" s="3">
+        <v>113.7680411124546</v>
+      </c>
       <c r="H50" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="I50" s="3">
+        <v>36.846151753325273</v>
+      </c>
+      <c r="J50" s="3">
+        <v>99.553579201934696</v>
+      </c>
       <c r="M50" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -3842,14 +4195,22 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="3">
+        <v>38.328159008464318</v>
+      </c>
+      <c r="E51" s="3">
+        <v>100.65977025392981</v>
+      </c>
       <c r="H51" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="I51" s="3">
+        <v>36.665187424425618</v>
+      </c>
+      <c r="J51" s="3">
+        <v>98.906287787182563</v>
+      </c>
       <c r="M51" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -3866,14 +4227,22 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="3">
+        <v>38.788781741233358</v>
+      </c>
+      <c r="E52" s="3">
+        <v>102.3095888754534</v>
+      </c>
       <c r="H52" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="I52" s="3">
+        <v>37.228228536880273</v>
+      </c>
+      <c r="J52" s="3">
+        <v>95.229262394195885</v>
+      </c>
       <c r="M52" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -3890,14 +4259,22 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="3">
+        <v>38.321248488512687</v>
+      </c>
+      <c r="E53" s="3">
+        <v>103.1433010882708</v>
+      </c>
       <c r="H53" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="3">
+        <v>36.48587061668681</v>
+      </c>
+      <c r="J53" s="3">
+        <v>103.4266142684401</v>
+      </c>
       <c r="M53" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -3914,14 +4291,22 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="3">
+        <v>39.126753325272063</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100.10342200725511</v>
+      </c>
       <c r="H54" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="I54" s="3">
+        <v>36.926810761789589</v>
+      </c>
+      <c r="J54" s="3">
+        <v>98.376372430471562</v>
+      </c>
       <c r="M54" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -3938,14 +4323,22 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="3">
+        <v>38.910931076178947</v>
+      </c>
+      <c r="E55" s="3">
+        <v>99.34128174123336</v>
+      </c>
       <c r="H55" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="3">
+        <v>36.668527811366367</v>
+      </c>
+      <c r="J55" s="3">
+        <v>102.085707376058</v>
+      </c>
       <c r="M55" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -3962,14 +4355,22 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="3">
+        <v>37.834975816203134</v>
+      </c>
+      <c r="E56" s="3">
+        <v>104.5349093107618</v>
+      </c>
       <c r="H56" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="I56" s="3">
+        <v>36.232817412333731</v>
+      </c>
+      <c r="J56" s="3">
+        <v>101.89854897218861</v>
+      </c>
       <c r="M56" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -3985,24 +4386,24 @@
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="3" t="e">
+      <c r="D58" s="3">
         <f>AVERAGE(D7:D56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="3" t="e">
+        <v>38.5002990931076</v>
+      </c>
+      <c r="E58" s="3">
         <f>AVERAGE(E7:E56)</f>
-        <v>#DIV/0!</v>
+        <v>102.4093397823458</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="3" t="e">
+      <c r="I58" s="3">
         <f>AVERAGE(I7:I56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="3" t="e">
+        <v>36.780024244256346</v>
+      </c>
+      <c r="J58" s="3">
         <f>AVERAGE(J7:J56)</f>
-        <v>#DIV/0!</v>
+        <v>99.141319951632426</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>2</v>
@@ -4020,24 +4421,24 @@
       <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="3" t="e">
+      <c r="D59" s="3">
         <f>_xlfn.STDEV.S(D7:D56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59" s="3" t="e">
+        <v>0.46687723583078999</v>
+      </c>
+      <c r="E59" s="3">
         <f>_xlfn.STDEV.S(E7:E56)</f>
-        <v>#DIV/0!</v>
+        <v>3.5479682507989354</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="3" t="e">
+      <c r="I59" s="3">
         <f>_xlfn.STDEV.S(I7:I56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="3" t="e">
+        <v>0.38096860918741871</v>
+      </c>
+      <c r="J59" s="3">
         <f>_xlfn.STDEV.S(J7:J56)</f>
-        <v>#DIV/0!</v>
+        <v>3.5156512984419881</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>3</v>
@@ -4061,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,6 +6186,1333 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:O58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2841.2970795646911</v>
+      </c>
+      <c r="O6" s="3">
+        <v>19007.396993470371</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="H7" s="2">
+        <f>H6+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="2">
+        <f>M6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2873.9749979746061</v>
+      </c>
+      <c r="O7" s="3">
+        <v>20253.900928053201</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H55" si="1">H7+1</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M55" si="2">M7+1</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2795.4474168077381</v>
+      </c>
+      <c r="O8" s="3">
+        <v>21160.12243131801</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2700.8397594619091</v>
+      </c>
+      <c r="O9" s="3">
+        <v>21909.51972587666</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2791.838175634824</v>
+      </c>
+      <c r="O10" s="3">
+        <v>20265.218484764198</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2856.454195465536</v>
+      </c>
+      <c r="O11" s="3">
+        <v>18796.326171946799</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2813.695966868198</v>
+      </c>
+      <c r="O12" s="3">
+        <v>20447.264483675939</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2599.7113590689228</v>
+      </c>
+      <c r="O13" s="3">
+        <v>23412.508954171699</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2763.0698407194668</v>
+      </c>
+      <c r="O14" s="3">
+        <v>21606.28185634824</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2911.8120077690428</v>
+      </c>
+      <c r="O15" s="3">
+        <v>22017.194207617889</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2789.3686947400229</v>
+      </c>
+      <c r="O16" s="3">
+        <v>19973.39475683192</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2888.8262824667459</v>
+      </c>
+      <c r="O17" s="3">
+        <v>18507.74081608222</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2805.8312512998768</v>
+      </c>
+      <c r="O18" s="3">
+        <v>18618.770757557431</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2849.3288176541701</v>
+      </c>
+      <c r="O19" s="3">
+        <v>18602.039426602169</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2726.9366535066488</v>
+      </c>
+      <c r="O20" s="3">
+        <v>22810.556403506649</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2914.215196825875</v>
+      </c>
+      <c r="O21" s="3">
+        <v>17352.219437363961</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2935.450885761788</v>
+      </c>
+      <c r="O22" s="3">
+        <v>18827.752763482469</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2767.5930462212809</v>
+      </c>
+      <c r="O23" s="3">
+        <v>21262.259267593701</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2793.1222759371208</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20819.342617654169</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2923.37652360943</v>
+      </c>
+      <c r="O25" s="3">
+        <v>16813.565908222488</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2766.660216233372</v>
+      </c>
+      <c r="O26" s="3">
+        <v>22524.55777726723</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2800.838247490929</v>
+      </c>
+      <c r="O27" s="3">
+        <v>20638.249414147522</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2861.3470669286562</v>
+      </c>
+      <c r="O28" s="3">
+        <v>20155.89631983071</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2737.8052201027799</v>
+      </c>
+      <c r="O29" s="3">
+        <v>22318.02185888754</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2848.9587060761769</v>
+      </c>
+      <c r="O30" s="3">
+        <v>19018.6868503023</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2952.791562454654</v>
+      </c>
+      <c r="O31" s="3">
+        <v>19420.0694185006</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2893.5728993651742</v>
+      </c>
+      <c r="O32" s="3">
+        <v>17798.769856227322</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2726.282274667471</v>
+      </c>
+      <c r="O33" s="3">
+        <v>21226.283994558638</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2978.5928830411108</v>
+      </c>
+      <c r="O34" s="3">
+        <v>17420.702109794431</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2912.8458988814982</v>
+      </c>
+      <c r="O35" s="3">
+        <v>18473.30545961305</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2852.5376890266011</v>
+      </c>
+      <c r="O36" s="3">
+        <v>17454.639581620311</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2954.5171431378458</v>
+      </c>
+      <c r="O37" s="3">
+        <v>18004.85036674728</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2843.3451972188618</v>
+      </c>
+      <c r="O38" s="3">
+        <v>21162.155858645699</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2966.662873941958</v>
+      </c>
+      <c r="O39" s="3">
+        <v>18632.611671463121</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2922.2055668379671</v>
+      </c>
+      <c r="O40" s="3">
+        <v>18369.74826940749</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2754.949067019345</v>
+      </c>
+      <c r="O41" s="3">
+        <v>20807.696695646919</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2927.184300937121</v>
+      </c>
+      <c r="O42" s="3">
+        <v>18414.218677146309</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2918.6684993651738</v>
+      </c>
+      <c r="O43" s="3">
+        <v>18497.295867230951</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2704.45018316203</v>
+      </c>
+      <c r="O44" s="3">
+        <v>20572.048167593712</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2734.3632188331298</v>
+      </c>
+      <c r="O45" s="3">
+        <v>22080.083211487301</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2836.573745163239</v>
+      </c>
+      <c r="O46" s="3">
+        <v>21748.155052357921</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2792.024246584037</v>
+      </c>
+      <c r="O47" s="3">
+        <v>18954.301736033849</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2906.4532097944361</v>
+      </c>
+      <c r="O48" s="3">
+        <v>20176.82124546553</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2823.025445012091</v>
+      </c>
+      <c r="O49" s="3">
+        <v>21095.965634220069</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N50" s="3">
+        <v>2648.7003082224901</v>
+      </c>
+      <c r="O50" s="3">
+        <v>23056.736040145101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <v>2883.6974201027801</v>
+      </c>
+      <c r="O51" s="3">
+        <v>17870.428148851272</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2980.3108233978219</v>
+      </c>
+      <c r="O52" s="3">
+        <v>18467.325008222491</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2881.4672779322841</v>
+      </c>
+      <c r="O53" s="3">
+        <v>20892.031016686811</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2821.8244332527188</v>
+      </c>
+      <c r="O54" s="3">
+        <v>20831.70924026602</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="H55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="M55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2891.815589631196</v>
+      </c>
+      <c r="O55" s="3">
+        <v>19332.263778113658</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3" t="e">
+        <f>AVERAGE(D6:D55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="3" t="e">
+        <f>AVERAGE(E6:E55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3" t="e">
+        <f>AVERAGE(I6:I55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="3" t="e">
+        <f>AVERAGE(J6:J55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3">
+        <f>AVERAGE(N6:N55)</f>
+        <v>2837.3332328234565</v>
+      </c>
+      <c r="O57" s="3">
+        <f>AVERAGE(O6:O55)</f>
+        <v>19957.580094372432</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="e">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="3" t="e">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="e">
+        <f>_xlfn.STDEV.S(I6:I55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="3" t="e">
+        <f>_xlfn.STDEV.S(J6:J55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <f>_xlfn.STDEV.S(N6:N55)</f>
+        <v>86.8681877904705</v>
+      </c>
+      <c r="O58" s="3">
+        <f>_xlfn.STDEV.S(O6:O55)</f>
+        <v>1687.4534204470879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O59"/>
   <sheetViews>
@@ -7507,11 +9235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -9026,7 +10754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I41"/>
   <sheetViews>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mae" sheetId="1" r:id="rId1"/>
@@ -4462,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:O58"/>
     </sheetView>
   </sheetViews>
@@ -6189,8 +6189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,13 +6244,21 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>3216.9870924425632</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25351.210120072548</v>
+      </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <v>3045.670391142683</v>
+      </c>
+      <c r="J6" s="3">
+        <v>27046.08139201935</v>
+      </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
@@ -6266,14 +6274,22 @@
         <f>C6+1</f>
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>3154.973506166868</v>
+      </c>
+      <c r="E7" s="3">
+        <v>26121.8972496977</v>
+      </c>
       <c r="H7" s="2">
         <f>H6+1</f>
         <v>2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>3080.5811506045939</v>
+      </c>
+      <c r="J7" s="3">
+        <v>22439.472626964929</v>
+      </c>
       <c r="M7" s="2">
         <f>M6+1</f>
         <v>2</v>
@@ -6290,14 +6306,22 @@
         <f t="shared" ref="C8:C55" si="0">C7+1</f>
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>3100.3716781741232</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28697.06710278113</v>
+      </c>
       <c r="H8" s="2">
         <f t="shared" ref="H8:H55" si="1">H7+1</f>
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>2901.2450577085851</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23917.951183192261</v>
+      </c>
       <c r="M8" s="2">
         <f t="shared" ref="M8:M55" si="2">M7+1</f>
         <v>3</v>
@@ -6314,14 +6338,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>3240.852323458284</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25242.038786577989</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>3074.1009652660209</v>
+      </c>
+      <c r="J9" s="3">
+        <v>22844.802552962508</v>
+      </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6338,14 +6370,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <v>3307.9025003627571</v>
+      </c>
+      <c r="E10" s="3">
+        <v>21073.26174183796</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3">
+        <v>3273.487678415961</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20245.27559866989</v>
+      </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6362,14 +6402,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>3291.8693716142679</v>
+      </c>
+      <c r="E11" s="3">
+        <v>24302.541663603381</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>3108.0674021765408</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23408.078405199511</v>
+      </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6386,14 +6434,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3">
+        <v>3130.1654001511488</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25536.385920072549</v>
+      </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>3296.526512817411</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17706.922864691649</v>
+      </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6410,14 +6466,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3">
+        <v>3334.504792442563</v>
+      </c>
+      <c r="E13" s="3">
+        <v>24087.751516686811</v>
+      </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>3229.7577689540499</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19439.272640870611</v>
+      </c>
       <c r="M13" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6434,14 +6498,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3">
+        <v>3355.074118863361</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21710.85839274486</v>
+      </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>3077.4802026602169</v>
+      </c>
+      <c r="J14" s="3">
+        <v>24794.033934703752</v>
+      </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6458,14 +6530,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3">
+        <v>3221.8093696493352</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24777.486592019341</v>
+      </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>3102.4045054111239</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22629.07936203144</v>
+      </c>
       <c r="M15" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6482,14 +6562,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3">
+        <v>3396.0688364570742</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19338.57599455864</v>
+      </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>3022.8268705562268</v>
+      </c>
+      <c r="J16" s="3">
+        <v>21568.508714873031</v>
+      </c>
       <c r="M16" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6506,14 +6594,22 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3">
+        <v>3154.0567938331319</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24617.994903264811</v>
+      </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3">
+        <v>3041.4236683494551</v>
+      </c>
+      <c r="J17" s="3">
+        <v>23575.398734461909</v>
+      </c>
       <c r="M17" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -6530,14 +6626,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3">
+        <v>3245.1017642382112</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24208.241315235791</v>
+      </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3">
+        <v>3130.967229353083</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21726.940821765409</v>
+      </c>
       <c r="M18" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -6554,14 +6658,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3">
+        <v>3397.996879474003</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20916.038330229741</v>
+      </c>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3">
+        <v>3086.0629383010869</v>
+      </c>
+      <c r="J19" s="3">
+        <v>21996.453624304711</v>
+      </c>
       <c r="M19" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -6578,14 +6690,22 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3">
+        <v>3400.3085809552608</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22067.07292660217</v>
+      </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>3094.6658655683191</v>
+      </c>
+      <c r="J20" s="3">
+        <v>23168.47734171704</v>
+      </c>
       <c r="M20" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -6602,14 +6722,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3">
+        <v>3179.3582010580408</v>
+      </c>
+      <c r="E21" s="3">
+        <v>27018.915974365169</v>
+      </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>3134.8409441354288</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20793.223449334939</v>
+      </c>
       <c r="M21" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -6626,14 +6754,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3">
+        <v>3306.9044490931069</v>
+      </c>
+      <c r="E22" s="3">
+        <v>22842.10722273276</v>
+      </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="3">
+        <v>3044.2625793530819</v>
+      </c>
+      <c r="J22" s="3">
+        <v>24005.32559854897</v>
+      </c>
       <c r="M22" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6650,14 +6786,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3">
+        <v>3115.8719370012091</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27090.224272430471</v>
+      </c>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>3092.7339331318012</v>
+      </c>
+      <c r="J23" s="3">
+        <v>21873.356974727929</v>
+      </c>
       <c r="M23" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6674,14 +6818,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="3">
+        <v>3271.5938137847638</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22284.024758041109</v>
+      </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3">
+        <v>3116.78410828295</v>
+      </c>
+      <c r="J24" s="3">
+        <v>23300.082884159609</v>
+      </c>
       <c r="M24" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6698,14 +6850,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3">
+        <v>3483.1729377871829</v>
+      </c>
+      <c r="E25" s="3">
+        <v>21555.31059673518</v>
+      </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3">
+        <v>3252.620860278113</v>
+      </c>
+      <c r="J25" s="3">
+        <v>18971.207692623939</v>
+      </c>
       <c r="M25" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -6722,14 +6882,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="3">
+        <v>3187.9207625755739</v>
+      </c>
+      <c r="E26" s="3">
+        <v>25566.761665659</v>
+      </c>
       <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="3">
+        <v>3056.872164691657</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21584.457699516319</v>
+      </c>
       <c r="M26" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -6746,14 +6914,22 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="3">
+        <v>3480.8487447702541</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20618.276820918982</v>
+      </c>
       <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>3197.917487575573</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19761.29710120918</v>
+      </c>
       <c r="M27" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -6770,14 +6946,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3">
+        <v>3441.197816021765</v>
+      </c>
+      <c r="E28" s="3">
+        <v>22556.80917593712</v>
+      </c>
       <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3">
+        <v>3068.2289293833128</v>
+      </c>
+      <c r="J28" s="3">
+        <v>22698.072636759371</v>
+      </c>
       <c r="M28" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -6794,14 +6978,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3">
+        <v>3259.6399957980648</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25429.238391414739</v>
+      </c>
       <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="3">
+        <v>3087.8486777206772</v>
+      </c>
+      <c r="J29" s="3">
+        <v>21509.049047037479</v>
+      </c>
       <c r="M29" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -6818,14 +7010,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="3">
+        <v>3372.943576904474</v>
+      </c>
+      <c r="E30" s="3">
+        <v>22076.55189383313</v>
+      </c>
       <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3">
+        <v>3081.8367878174122</v>
+      </c>
+      <c r="J30" s="3">
+        <v>21031.092299274489</v>
+      </c>
       <c r="M30" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -6842,14 +7042,22 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3">
+        <v>3304.854324818622</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25691.617358162031</v>
+      </c>
       <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3">
+        <v>3145.1498453446179</v>
+      </c>
+      <c r="J31" s="3">
+        <v>18799.522951995161</v>
+      </c>
       <c r="M31" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -6866,14 +7074,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3">
+        <v>3154.557795918985</v>
+      </c>
+      <c r="E32" s="3">
+        <v>24577.280992382101</v>
+      </c>
       <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="I32" s="3">
+        <v>3047.8011408706152</v>
+      </c>
+      <c r="J32" s="3">
+        <v>23166.169537605801</v>
+      </c>
       <c r="M32" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -6890,14 +7106,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3">
+        <v>3367.8476159915349</v>
+      </c>
+      <c r="E33" s="3">
+        <v>24980.123166989109</v>
+      </c>
       <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3">
+        <v>3135.6538781438931</v>
+      </c>
+      <c r="J33" s="3">
+        <v>20758.261880532042</v>
+      </c>
       <c r="M33" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -6914,14 +7138,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3">
+        <v>3260.4142163240631</v>
+      </c>
+      <c r="E34" s="3">
+        <v>25114.813624667469</v>
+      </c>
       <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3">
+        <v>3077.1735257255132</v>
+      </c>
+      <c r="J34" s="3">
+        <v>21649.48267230955</v>
+      </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -6938,14 +7170,22 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3">
+        <v>3224.8080128174129</v>
+      </c>
+      <c r="E35" s="3">
+        <v>23644.69216045949</v>
+      </c>
       <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3">
+        <v>3075.149316263602</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24549.111314631191</v>
+      </c>
       <c r="M35" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -6962,14 +7202,22 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="3">
+        <v>3309.5213876662629</v>
+      </c>
+      <c r="E36" s="3">
+        <v>25062.871717533249</v>
+      </c>
       <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="I36" s="3">
+        <v>3194.785590084643</v>
+      </c>
+      <c r="J36" s="3">
+        <v>21330.725482708582</v>
+      </c>
       <c r="M36" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -6986,14 +7234,22 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="3">
+        <v>3332.2874597339778</v>
+      </c>
+      <c r="E37" s="3">
+        <v>23240.710217775089</v>
+      </c>
       <c r="H37" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="I37" s="3">
+        <v>3124.9209786577981</v>
+      </c>
+      <c r="J37" s="3">
+        <v>19845.542686094312</v>
+      </c>
       <c r="M37" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -7010,14 +7266,22 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="3">
+        <v>3381.7529509673532</v>
+      </c>
+      <c r="E38" s="3">
+        <v>21502.959778234581</v>
+      </c>
       <c r="H38" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="I38" s="3">
+        <v>3004.0029480350659</v>
+      </c>
+      <c r="J38" s="3">
+        <v>23979.099173397819</v>
+      </c>
       <c r="M38" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -7034,14 +7298,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="3">
+        <v>3268.376077388149</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25027.598042321639</v>
+      </c>
       <c r="H39" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="3">
+        <v>3095.2343067714619</v>
+      </c>
+      <c r="J39" s="3">
+        <v>20299.23827146312</v>
+      </c>
       <c r="M39" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -7058,14 +7330,22 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3">
+        <v>3311.4699999395411</v>
+      </c>
+      <c r="E40" s="3">
+        <v>23277.425789117289</v>
+      </c>
       <c r="H40" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="3">
+        <v>3168.5234801390561</v>
+      </c>
+      <c r="J40" s="3">
+        <v>20753.645466263599</v>
+      </c>
       <c r="M40" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -7082,14 +7362,22 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="3">
+        <v>3369.1776064691649</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21483.52724244256</v>
+      </c>
       <c r="H41" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="3">
+        <v>3069.061685792019</v>
+      </c>
+      <c r="J41" s="3">
+        <v>24413.13493651753</v>
+      </c>
       <c r="M41" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -7106,14 +7394,22 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3">
+        <v>3351.5865921704958</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21950.386020435311</v>
+      </c>
       <c r="H42" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3">
+        <v>3054.0664550785968</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21997.308454292619</v>
+      </c>
       <c r="M42" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -7130,14 +7426,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="3">
+        <v>3418.411057889964</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19416.532257436509</v>
+      </c>
       <c r="H43" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="I43" s="3">
+        <v>3111.4974358524778</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22067.477231801691</v>
+      </c>
       <c r="M43" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -7154,14 +7458,22 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D44" s="3">
+        <v>3358.2446576481261</v>
+      </c>
+      <c r="E44" s="3">
+        <v>22929.82514498186</v>
+      </c>
       <c r="H44" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="3">
+        <v>3164.7610568923819</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21556.806998911728</v>
+      </c>
       <c r="M44" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -7178,14 +7490,22 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="3">
+        <v>3415.787828506649</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22472.83811305925</v>
+      </c>
       <c r="H45" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="I45" s="3">
+        <v>3226.5033131197092</v>
+      </c>
+      <c r="J45" s="3">
+        <v>18173.554329987899</v>
+      </c>
       <c r="M45" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -7202,14 +7522,22 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="3">
+        <v>3355.8406158403868</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23758.70939951632</v>
+      </c>
       <c r="H46" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3">
+        <v>3128.3264233373638</v>
+      </c>
+      <c r="J46" s="3">
+        <v>21767.688337968561</v>
+      </c>
       <c r="M46" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -7226,14 +7554,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="3">
+        <v>3397.3991872732759</v>
+      </c>
+      <c r="E47" s="3">
+        <v>21938.229162152358</v>
+      </c>
       <c r="H47" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3">
+        <v>3014.7862496977018</v>
+      </c>
+      <c r="J47" s="3">
+        <v>23640.734281015721</v>
+      </c>
       <c r="M47" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -7250,14 +7586,22 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="3">
+        <v>3357.0984856711011</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22992.53917037485</v>
+      </c>
       <c r="H48" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="I48" s="3">
+        <v>3106.2381782043522</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20609.787174002409</v>
+      </c>
       <c r="M48" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -7274,14 +7618,22 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="D49" s="3">
+        <v>3328.5219995465532</v>
+      </c>
+      <c r="E49" s="3">
+        <v>26237.459122007251</v>
+      </c>
       <c r="H49" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="I49" s="3">
+        <v>3232.6292698609432</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20846.896878476411</v>
+      </c>
       <c r="M49" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -7298,14 +7650,22 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="3">
+        <v>3341.2638752720682</v>
+      </c>
+      <c r="E50" s="3">
+        <v>22715.359543530831</v>
+      </c>
       <c r="H50" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="I50" s="3">
+        <v>3075.7291628174121</v>
+      </c>
+      <c r="J50" s="3">
+        <v>23374.509329866982</v>
+      </c>
       <c r="M50" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -7322,14 +7682,22 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="3">
+        <v>3311.3510293228542</v>
+      </c>
+      <c r="E51" s="3">
+        <v>22470.66266311971</v>
+      </c>
       <c r="H51" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="I51" s="3">
+        <v>3110.3434353385728</v>
+      </c>
+      <c r="J51" s="3">
+        <v>21763.49903083434</v>
+      </c>
       <c r="M51" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -7346,14 +7714,22 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="3">
+        <v>3386.4982378174118</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20027.732994316801</v>
+      </c>
       <c r="H52" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="I52" s="3">
+        <v>3121.5836908403862</v>
+      </c>
+      <c r="J52" s="3">
+        <v>20026.41332720677</v>
+      </c>
       <c r="M52" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -7370,14 +7746,22 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="3">
+        <v>3347.7943035368799</v>
+      </c>
+      <c r="E53" s="3">
+        <v>22530.89984691656</v>
+      </c>
       <c r="H53" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="3">
+        <v>3098.2479312877872</v>
+      </c>
+      <c r="J53" s="3">
+        <v>21452.670103869401</v>
+      </c>
       <c r="M53" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -7394,14 +7778,22 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="3">
+        <v>3172.8161358827078</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24861.175624909309</v>
+      </c>
       <c r="H54" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="I54" s="3">
+        <v>3192.224364812575</v>
+      </c>
+      <c r="J54" s="3">
+        <v>19293.88813688029</v>
+      </c>
       <c r="M54" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -7418,14 +7810,22 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="3">
+        <v>3148.306387273276</v>
+      </c>
+      <c r="E55" s="3">
+        <v>25888.576547037479</v>
+      </c>
       <c r="H55" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="3">
+        <v>3203.9019245163231</v>
+      </c>
+      <c r="J55" s="3">
+        <v>20743.61531438935</v>
+      </c>
       <c r="M55" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -7441,24 +7841,24 @@
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="3" t="e">
+      <c r="D57" s="3">
         <f>AVERAGE(D6:D55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="3" t="e">
+        <v>3300.4696616952847</v>
+      </c>
+      <c r="E57" s="3">
         <f>AVERAGE(E6:E55)</f>
-        <v>#DIV/0!</v>
+        <v>23577.623780558639</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I57" s="3" t="e">
+      <c r="I57" s="3">
         <f>AVERAGE(I6:I55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="3" t="e">
+        <v>3113.5502053428058</v>
+      </c>
+      <c r="J57" s="3">
         <f>AVERAGE(J6:J55)</f>
-        <v>#DIV/0!</v>
+        <v>21777.853969692856</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>2</v>
@@ -7476,24 +7876,24 @@
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="3" t="e">
+      <c r="D58" s="3">
         <f>_xlfn.STDEV.S(D6:D55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="3" t="e">
+        <v>97.570373127286459</v>
+      </c>
+      <c r="E58" s="3">
         <f>_xlfn.STDEV.S(E6:E55)</f>
-        <v>#DIV/0!</v>
+        <v>2072.9251925146796</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3" t="e">
+      <c r="I58" s="3">
         <f>_xlfn.STDEV.S(I6:I55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="3" t="e">
+        <v>74.529466313913289</v>
+      </c>
+      <c r="J58" s="3">
         <f>_xlfn.STDEV.S(J6:J55)</f>
-        <v>#DIV/0!</v>
+        <v>1852.100870537872</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>3</v>
@@ -9239,8 +9639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,8 +9695,12 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <v>0.90412555723933363</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.42750268680290798</v>
+      </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
@@ -9322,8 +9726,12 @@
         <f>H6+1</f>
         <v>2</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>0.90939255972905075</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.28052477256734548</v>
+      </c>
       <c r="M7" s="2">
         <f>M6+1</f>
         <v>2</v>
@@ -9350,8 +9758,12 @@
         <f t="shared" ref="H8:H55" si="1">H7+1</f>
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.91055416855652394</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.27854230234701188</v>
+      </c>
       <c r="M8" s="2">
         <f t="shared" ref="M8:M55" si="2">M7+1</f>
         <v>3</v>
@@ -9378,8 +9790,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>0.90881597568581884</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.3497551292566905</v>
+      </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -9406,8 +9822,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3">
+        <v>0.90911387652511921</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.35376807502779112</v>
+      </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9434,8 +9854,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>0.90539514770878049</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.35355065251754408</v>
+      </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -9462,8 +9886,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.90901591236516344</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.3300243664886775</v>
+      </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -9490,8 +9918,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>0.9079087221562393</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.28058117093124868</v>
+      </c>
       <c r="M13" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -9518,8 +9950,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>0.90785397301602544</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.39191919273441711</v>
+      </c>
       <c r="M14" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -9546,8 +9982,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>0.90737715026868282</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.33280952346996717</v>
+      </c>
       <c r="M15" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -9574,8 +10014,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>0.90823028905856296</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.34196350840261958</v>
+      </c>
       <c r="M16" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -9602,8 +10046,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3">
+        <v>0.90534639015244911</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.36590502410462061</v>
+      </c>
       <c r="M17" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -9630,8 +10078,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3">
+        <v>0.91009047458693115</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.25799876996976823</v>
+      </c>
       <c r="M18" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -9658,8 +10110,12 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3">
+        <v>0.90929492097599995</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.32661407871416231</v>
+      </c>
       <c r="M19" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -9686,8 +10142,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>0.90792311678307247</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.3178600381297112</v>
+      </c>
       <c r="M20" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -9714,8 +10174,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>0.90619680558169891</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.32132652363235858</v>
+      </c>
       <c r="M21" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -9742,8 +10206,12 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="3">
+        <v>0.91123213881750642</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.37199031296290869</v>
+      </c>
       <c r="M22" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -9770,8 +10238,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>0.91187704910795719</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.31878276838904862</v>
+      </c>
       <c r="M23" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -9798,8 +10270,12 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3">
+        <v>0.90925812610268597</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.29646399126604911</v>
+      </c>
       <c r="M24" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -9826,8 +10302,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3">
+        <v>0.906255970468544</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.29727363757154218</v>
+      </c>
       <c r="M25" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9854,8 +10334,12 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="3">
+        <v>0.9079690878834441</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.36849869114487532</v>
+      </c>
       <c r="M26" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -9882,8 +10366,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>0.90866727410770942</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.27775363877604847</v>
+      </c>
       <c r="M27" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -9910,8 +10398,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3">
+        <v>0.90930927887235624</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.343630577507264</v>
+      </c>
       <c r="M28" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -9938,8 +10430,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="3">
+        <v>0.90547266585714004</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.34908375181311868</v>
+      </c>
       <c r="M29" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -9966,8 +10462,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="3">
+        <v>0.9078507177160523</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.31702361724545369</v>
+      </c>
       <c r="M30" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -9994,8 +10494,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3">
+        <v>0.91054646095650116</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.30692973675814178</v>
+      </c>
       <c r="M31" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -10022,8 +10526,12 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="I32" s="3">
+        <v>0.90904426610177547</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.3268303380790798</v>
+      </c>
       <c r="M32" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -10050,8 +10558,12 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3">
+        <v>0.90325833808149991</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.37223291292966559</v>
+      </c>
       <c r="M33" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -10078,8 +10590,12 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3">
+        <v>0.90996281054771588</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.30234599334582413</v>
+      </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -10106,8 +10622,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3">
+        <v>0.91197101567459815</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.29175726336685348</v>
+      </c>
       <c r="M35" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -10134,8 +10654,12 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="I36" s="3">
+        <v>0.91160163959341389</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.32560207606498809</v>
+      </c>
       <c r="M36" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -10162,8 +10686,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="I37" s="3">
+        <v>0.91032619961624062</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.25557868482060792</v>
+      </c>
       <c r="M37" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -10190,8 +10718,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="I38" s="3">
+        <v>0.90649995234227743</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.38142632022232581</v>
+      </c>
       <c r="M38" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -10218,8 +10750,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="3">
+        <v>0.9079017055826375</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.37956159532344391</v>
+      </c>
       <c r="M39" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -10246,8 +10782,12 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="3">
+        <v>0.90975089215012217</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.31349251974106551</v>
+      </c>
       <c r="M40" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10274,8 +10814,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="3">
+        <v>0.91005514605582094</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.34460329470773082</v>
+      </c>
       <c r="M41" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10302,8 +10846,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="I42" s="3">
+        <v>0.90996706994976218</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.32837263881826578</v>
+      </c>
       <c r="M42" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10330,8 +10878,12 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="I43" s="3">
+        <v>0.90644311154764323</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.37410656586051089</v>
+      </c>
       <c r="M43" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10358,8 +10910,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="3">
+        <v>0.91034518172196011</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.33680249949420338</v>
+      </c>
       <c r="M44" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -10386,8 +10942,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="I45" s="3">
+        <v>0.90602196001410384</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.33026211789630988</v>
+      </c>
       <c r="M45" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -10414,8 +10974,12 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="I46" s="3">
+        <v>0.90786779116412131</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.35652337109062537</v>
+      </c>
       <c r="M46" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -10442,8 +11006,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3">
+        <v>0.90532477036474546</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.40728237695587011</v>
+      </c>
       <c r="M47" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -10470,8 +11038,12 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="I48" s="3">
+        <v>0.90723085000838521</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.33864142300859512</v>
+      </c>
       <c r="M48" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -10498,8 +11070,12 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="I49" s="3">
+        <v>0.90451943460731488</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.35211356528402188</v>
+      </c>
       <c r="M49" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -10526,8 +11102,12 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="I50" s="3">
+        <v>0.90629700275671321</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.40043933595991321</v>
+      </c>
       <c r="M50" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -10554,8 +11134,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="I51" s="3">
+        <v>0.90859010188473355</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.31176122208155832</v>
+      </c>
       <c r="M51" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -10582,8 +11166,12 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="I52" s="3">
+        <v>0.90547605896457839</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.41057111654881329</v>
+      </c>
       <c r="M52" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -10610,8 +11198,12 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="3">
+        <v>0.91076257084960499</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.34449376037067903</v>
+      </c>
       <c r="M53" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -10638,8 +11230,12 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="I54" s="3">
+        <v>0.90777686714993711</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.30161677552227301</v>
+      </c>
       <c r="M54" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -10666,8 +11262,12 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="3">
+        <v>0.90677725150959487</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.38646012884856662</v>
+      </c>
       <c r="M55" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -10694,13 +11294,13 @@
       <c r="H57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I57" s="3" t="e">
+      <c r="I57" s="3">
         <f>AVERAGE(I6:I55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="3" t="e">
+        <v>0.90817691597037298</v>
+      </c>
+      <c r="J57" s="3">
         <f>AVERAGE(J6:J55)</f>
-        <v>#DIV/0!</v>
+        <v>0.33661908869746171</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>2</v>
@@ -10729,13 +11329,13 @@
       <c r="H58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3" t="e">
+      <c r="I58" s="3">
         <f>_xlfn.STDEV.S(I6:I55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="3" t="e">
+        <v>2.1146529778738312E-3</v>
+      </c>
+      <c r="J58" s="3">
         <f>_xlfn.STDEV.S(J6:J55)</f>
-        <v>#DIV/0!</v>
+        <v>3.9639345196902862E-2</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>3</v>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="C3:AD57"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:O57"/>
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,7 +4463,7 @@
   <dimension ref="C4:O58"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:O58"/>
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,8 +6189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7917,7 +7917,7 @@
   <dimension ref="C5:O59"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:O60"/>
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9639,8 +9639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/underground/tests on superdataset/test-20.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-20.xlsx
@@ -7916,7 +7916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
@@ -9640,7 +9640,7 @@
   <dimension ref="C4:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
